--- a/Emissão/Layouts/Layout 4.0 NFe_NFCe.xlsx
+++ b/Emissão/Layouts/Layout 4.0 NFe_NFCe.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="2310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="2311">
   <si>
     <t xml:space="preserve">Altere o filtro para selecionar um modelo</t>
   </si>
@@ -3896,6 +3896,9 @@
   </si>
   <si>
     <t xml:space="preserve">N (3.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas para CST 51 e 53 </t>
   </si>
   <si>
     <t xml:space="preserve">O23</t>
@@ -9155,8 +9158,8 @@
   </sheetPr>
   <dimension ref="A1:S885"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B343" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F352" activeCellId="0" sqref="F352"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A388" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G390" activeCellId="0" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22535,7 +22538,7 @@
         <v>46</v>
       </c>
       <c r="J393" s="24" t="s">
-        <v>1166</v>
+        <v>1171</v>
       </c>
       <c r="K393" s="23" t="s">
         <v>27</v>
@@ -22550,13 +22553,13 @@
         <v>289</v>
       </c>
       <c r="B394" s="23" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C394" s="24" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D394" s="24" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E394" s="22" t="s">
         <v>31</v>
@@ -22589,13 +22592,13 @@
         <v>290</v>
       </c>
       <c r="B395" s="49" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C395" s="50" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D395" s="50" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E395" s="47" t="s">
         <v>31</v>
@@ -22613,7 +22616,7 @@
         <v>46</v>
       </c>
       <c r="J395" s="50" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="K395" s="49" t="s">
         <v>27</v>
@@ -22628,13 +22631,13 @@
         <v>291</v>
       </c>
       <c r="B396" s="49" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C396" s="50" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D396" s="50" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E396" s="47" t="s">
         <v>31</v>
@@ -22652,7 +22655,7 @@
         <v>46</v>
       </c>
       <c r="J396" s="50" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="K396" s="49" t="s">
         <v>27</v>
@@ -22667,13 +22670,13 @@
         <v>292</v>
       </c>
       <c r="B397" s="49" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C397" s="50" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D397" s="50" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E397" s="47" t="s">
         <v>31</v>
@@ -22691,7 +22694,7 @@
         <v>46</v>
       </c>
       <c r="J397" s="50" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="K397" s="49" t="s">
         <v>27</v>
@@ -22706,13 +22709,13 @@
         <v>293</v>
       </c>
       <c r="B398" s="49" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C398" s="50" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D398" s="50" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E398" s="47" t="s">
         <v>31</v>
@@ -22730,7 +22733,7 @@
         <v>46</v>
       </c>
       <c r="J398" s="50" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="K398" s="49" t="s">
         <v>27</v>
@@ -22745,13 +22748,13 @@
         <v>294</v>
       </c>
       <c r="B399" s="49" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C399" s="50" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D399" s="50" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E399" s="47" t="s">
         <v>31</v>
@@ -22769,7 +22772,7 @@
         <v>46</v>
       </c>
       <c r="J399" s="50" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="K399" s="49" t="s">
         <v>27</v>
@@ -22784,13 +22787,13 @@
         <v>295</v>
       </c>
       <c r="B400" s="49" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C400" s="50" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D400" s="50" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E400" s="47" t="s">
         <v>31</v>
@@ -22808,7 +22811,7 @@
         <v>46</v>
       </c>
       <c r="J400" s="50" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="K400" s="49" t="s">
         <v>27</v>
@@ -22823,13 +22826,13 @@
         <v>296</v>
       </c>
       <c r="B401" s="49" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C401" s="50" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D401" s="50" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E401" s="47" t="s">
         <v>31</v>
@@ -22847,7 +22850,7 @@
         <v>46</v>
       </c>
       <c r="J401" s="50" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K401" s="49" t="s">
         <v>40</v>
@@ -22862,13 +22865,13 @@
         <v>297</v>
       </c>
       <c r="B402" s="49" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C402" s="50" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D402" s="50" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E402" s="47" t="s">
         <v>31</v>
@@ -22886,7 +22889,7 @@
         <v>46</v>
       </c>
       <c r="J402" s="50" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="K402" s="49" t="s">
         <v>40</v>
@@ -22901,13 +22904,13 @@
         <v>298</v>
       </c>
       <c r="B403" s="49" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C403" s="50" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D403" s="50" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E403" s="47" t="s">
         <v>31</v>
@@ -22925,7 +22928,7 @@
         <v>46</v>
       </c>
       <c r="J403" s="50" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="K403" s="49" t="s">
         <v>40</v>
@@ -22940,13 +22943,13 @@
         <v>299</v>
       </c>
       <c r="B404" s="49" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C404" s="50" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D404" s="50" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E404" s="47" t="s">
         <v>31</v>
@@ -22977,13 +22980,13 @@
         <v>300</v>
       </c>
       <c r="B405" s="49" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C405" s="50" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D405" s="50" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E405" s="47" t="s">
         <v>31</v>
@@ -23001,7 +23004,7 @@
         <v>46</v>
       </c>
       <c r="J405" s="50" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="K405" s="49" t="s">
         <v>40</v>
@@ -23016,13 +23019,13 @@
         <v>301</v>
       </c>
       <c r="B406" s="49" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C406" s="50" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D406" s="50" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E406" s="47" t="s">
         <v>31</v>
@@ -23053,13 +23056,13 @@
         <v>302</v>
       </c>
       <c r="B407" s="54" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C407" s="55" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D407" s="55" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E407" s="51" t="s">
         <v>31</v>
@@ -23077,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="J407" s="55" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="K407" s="54" t="s">
         <v>447</v>
@@ -23092,13 +23095,13 @@
         <v>303</v>
       </c>
       <c r="B408" s="54" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C408" s="55" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D408" s="55" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E408" s="51" t="s">
         <v>31</v>
@@ -23116,7 +23119,7 @@
         <v>46</v>
       </c>
       <c r="J408" s="55" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="K408" s="54" t="s">
         <v>447</v>
@@ -23131,13 +23134,13 @@
         <v>304</v>
       </c>
       <c r="B409" s="54" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C409" s="55" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D409" s="55" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E409" s="51" t="s">
         <v>31</v>
@@ -23155,7 +23158,7 @@
         <v>46</v>
       </c>
       <c r="J409" s="55" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="K409" s="54" t="s">
         <v>447</v>
@@ -23170,13 +23173,13 @@
         <v>305</v>
       </c>
       <c r="B410" s="54" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C410" s="55" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D410" s="55" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E410" s="51" t="s">
         <v>31</v>
@@ -23194,7 +23197,7 @@
         <v>46</v>
       </c>
       <c r="J410" s="55" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K410" s="54" t="s">
         <v>447</v>
@@ -23209,13 +23212,13 @@
         <v>306</v>
       </c>
       <c r="B411" s="54" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C411" s="55" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D411" s="55" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E411" s="51" t="s">
         <v>31</v>
@@ -23233,7 +23236,7 @@
         <v>46</v>
       </c>
       <c r="J411" s="55" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="K411" s="54" t="s">
         <v>447</v>
@@ -23248,13 +23251,13 @@
         <v>307</v>
       </c>
       <c r="B412" s="49" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C412" s="50" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D412" s="50" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E412" s="47" t="s">
         <v>31</v>
@@ -23272,7 +23275,7 @@
         <v>46</v>
       </c>
       <c r="J412" s="50" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="K412" s="49" t="s">
         <v>40</v>
@@ -23287,13 +23290,13 @@
         <v>308</v>
       </c>
       <c r="B413" s="54" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C413" s="55" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D413" s="55" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E413" s="51" t="s">
         <v>31</v>
@@ -23311,7 +23314,7 @@
         <v>46</v>
       </c>
       <c r="J413" s="55" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K413" s="54" t="s">
         <v>447</v>
@@ -23326,13 +23329,13 @@
         <v>309</v>
       </c>
       <c r="B414" s="54" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C414" s="55" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D414" s="55" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E414" s="51" t="s">
         <v>31</v>
@@ -23350,7 +23353,7 @@
         <v>46</v>
       </c>
       <c r="J414" s="55" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K414" s="54" t="s">
         <v>447</v>
@@ -23365,13 +23368,13 @@
         <v>310</v>
       </c>
       <c r="B415" s="54" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C415" s="55" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D415" s="55" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E415" s="51" t="s">
         <v>31</v>
@@ -23389,7 +23392,7 @@
         <v>46</v>
       </c>
       <c r="J415" s="55" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K415" s="54" t="s">
         <v>447</v>
@@ -23404,13 +23407,13 @@
         <v>311</v>
       </c>
       <c r="B416" s="54" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C416" s="55" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D416" s="55" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E416" s="51" t="s">
         <v>31</v>
@@ -23428,7 +23431,7 @@
         <v>46</v>
       </c>
       <c r="J416" s="55" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K416" s="54" t="s">
         <v>447</v>
@@ -23443,13 +23446,13 @@
         <v>312</v>
       </c>
       <c r="B417" s="54" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C417" s="55" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D417" s="55" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E417" s="51" t="s">
         <v>31</v>
@@ -23458,7 +23461,7 @@
         <v>1098</v>
       </c>
       <c r="G417" s="51" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H417" s="53" t="s">
         <v>45</v>
@@ -23467,10 +23470,10 @@
         <v>46</v>
       </c>
       <c r="J417" s="55" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="K417" s="54" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="L417" s="51" t="s">
         <v>17</v>
@@ -23482,13 +23485,13 @@
         <v>313</v>
       </c>
       <c r="B418" s="54" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C418" s="50" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D418" s="50" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E418" s="47" t="s">
         <v>31</v>
@@ -23506,7 +23509,7 @@
         <v>46</v>
       </c>
       <c r="J418" s="50" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="K418" s="49" t="s">
         <v>564</v>
@@ -23521,13 +23524,13 @@
         <v>314</v>
       </c>
       <c r="B419" s="54" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C419" s="50" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="D419" s="50" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E419" s="47" t="s">
         <v>31</v>
@@ -23545,7 +23548,7 @@
         <v>46</v>
       </c>
       <c r="J419" s="50" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="K419" s="49" t="s">
         <v>564</v>
@@ -23560,13 +23563,13 @@
         <v>315</v>
       </c>
       <c r="B420" s="54" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C420" s="50" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D420" s="50" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E420" s="47" t="s">
         <v>31</v>
@@ -23584,7 +23587,7 @@
         <v>46</v>
       </c>
       <c r="J420" s="50" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="K420" s="49" t="s">
         <v>564</v>
@@ -23599,13 +23602,13 @@
         <v>316</v>
       </c>
       <c r="B421" s="54" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C421" s="50" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D421" s="50" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E421" s="47" t="s">
         <v>31</v>
@@ -23623,7 +23626,7 @@
         <v>46</v>
       </c>
       <c r="J421" s="50" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="K421" s="49" t="s">
         <v>564</v>
@@ -23638,13 +23641,13 @@
         <v>317</v>
       </c>
       <c r="B422" s="54" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C422" s="50" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D422" s="50" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E422" s="47" t="s">
         <v>31</v>
@@ -23662,7 +23665,7 @@
         <v>46</v>
       </c>
       <c r="J422" s="50" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="K422" s="49" t="s">
         <v>564</v>
@@ -23677,13 +23680,13 @@
         <v>318</v>
       </c>
       <c r="B423" s="126" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C423" s="127" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D423" s="127" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E423" s="105" t="s">
         <v>31</v>
@@ -23701,7 +23704,7 @@
         <v>46</v>
       </c>
       <c r="J423" s="127" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="K423" s="126" t="s">
         <v>40</v>
@@ -23716,13 +23719,13 @@
         <v>319</v>
       </c>
       <c r="B424" s="126" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C424" s="127" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D424" s="127" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E424" s="105" t="s">
         <v>31</v>
@@ -23740,7 +23743,7 @@
         <v>25</v>
       </c>
       <c r="J424" s="127" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="K424" s="126" t="s">
         <v>40</v>
@@ -23755,13 +23758,13 @@
         <v>320</v>
       </c>
       <c r="B425" s="126" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C425" s="127" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D425" s="127" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E425" s="105" t="s">
         <v>31</v>
@@ -23779,7 +23782,7 @@
         <v>25</v>
       </c>
       <c r="J425" s="127" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="K425" s="126" t="s">
         <v>40</v>
@@ -23794,13 +23797,13 @@
         <v>321</v>
       </c>
       <c r="B426" s="126" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C426" s="127" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D426" s="127" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E426" s="105" t="s">
         <v>31</v>
@@ -23818,7 +23821,7 @@
         <v>46</v>
       </c>
       <c r="J426" s="127" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="K426" s="126" t="s">
         <v>40</v>
@@ -23833,13 +23836,13 @@
         <v>322</v>
       </c>
       <c r="B427" s="126" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C427" s="127" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D427" s="127" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E427" s="105" t="s">
         <v>31</v>
@@ -23857,7 +23860,7 @@
         <v>25</v>
       </c>
       <c r="J427" s="127" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="K427" s="126" t="s">
         <v>40</v>
@@ -23872,13 +23875,13 @@
         <v>323</v>
       </c>
       <c r="B428" s="126" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C428" s="127" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D428" s="127" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E428" s="105" t="s">
         <v>31</v>
@@ -23896,7 +23899,7 @@
         <v>25</v>
       </c>
       <c r="J428" s="127" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="K428" s="126" t="s">
         <v>40</v>
@@ -23911,13 +23914,13 @@
         <v>324</v>
       </c>
       <c r="B429" s="126" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C429" s="127" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D429" s="127" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E429" s="105" t="s">
         <v>31</v>
@@ -23926,7 +23929,7 @@
         <v>1098</v>
       </c>
       <c r="G429" s="105" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H429" s="128" t="s">
         <v>33</v>
@@ -23935,7 +23938,7 @@
         <v>25</v>
       </c>
       <c r="J429" s="127" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="K429" s="126" t="s">
         <v>40</v>
@@ -23950,13 +23953,13 @@
         <v>325</v>
       </c>
       <c r="B430" s="126" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C430" s="127" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D430" s="127" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E430" s="105" t="s">
         <v>31</v>
@@ -23974,7 +23977,7 @@
         <v>25</v>
       </c>
       <c r="J430" s="127" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="K430" s="126" t="s">
         <v>40</v>
@@ -23989,13 +23992,13 @@
         <v>326</v>
       </c>
       <c r="B431" s="126" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C431" s="127" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D431" s="127" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E431" s="105" t="s">
         <v>31</v>
@@ -24013,7 +24016,7 @@
         <v>46</v>
       </c>
       <c r="J431" s="127" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="K431" s="126" t="s">
         <v>40</v>
@@ -24028,13 +24031,13 @@
         <v>327</v>
       </c>
       <c r="B432" s="126" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C432" s="127" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D432" s="127" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E432" s="105" t="s">
         <v>31</v>
@@ -24052,7 +24055,7 @@
         <v>46</v>
       </c>
       <c r="J432" s="127" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="K432" s="126" t="s">
         <v>40</v>
@@ -24067,13 +24070,13 @@
         <v>328</v>
       </c>
       <c r="B433" s="126" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C433" s="127" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D433" s="127" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E433" s="105" t="s">
         <v>31</v>
@@ -24091,7 +24094,7 @@
         <v>46</v>
       </c>
       <c r="J433" s="127" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K433" s="126" t="s">
         <v>40</v>
@@ -24106,13 +24109,13 @@
         <v>329</v>
       </c>
       <c r="B434" s="126" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C434" s="127" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D434" s="127" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E434" s="105" t="s">
         <v>31</v>
@@ -24130,7 +24133,7 @@
         <v>46</v>
       </c>
       <c r="J434" s="127" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="K434" s="126" t="s">
         <v>40</v>
@@ -24145,13 +24148,13 @@
         <v>330</v>
       </c>
       <c r="B435" s="126" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C435" s="127" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D435" s="127" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E435" s="105" t="s">
         <v>31</v>
@@ -24169,7 +24172,7 @@
         <v>25</v>
       </c>
       <c r="J435" s="127" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="K435" s="126" t="s">
         <v>40</v>
@@ -24184,13 +24187,13 @@
         <v>331</v>
       </c>
       <c r="B436" s="126" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C436" s="127" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D436" s="127" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E436" s="105" t="s">
         <v>31</v>
@@ -24208,7 +24211,7 @@
         <v>25</v>
       </c>
       <c r="J436" s="127" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="K436" s="126" t="s">
         <v>40</v>
@@ -24287,7 +24290,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="48" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B440" s="48"/>
       <c r="C440" s="48"/>
@@ -24309,13 +24312,13 @@
         <v>332</v>
       </c>
       <c r="B441" s="49" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C441" s="50" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D441" s="50" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E441" s="47" t="s">
         <v>22</v>
@@ -24333,7 +24336,7 @@
         <v>46</v>
       </c>
       <c r="J441" s="50" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="K441" s="49" t="s">
         <v>27</v>
@@ -24348,19 +24351,19 @@
         <v>333</v>
       </c>
       <c r="B442" s="49" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C442" s="50" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D442" s="50" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E442" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F442" s="47" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G442" s="47" t="s">
         <v>212</v>
@@ -24385,19 +24388,19 @@
         <v>334</v>
       </c>
       <c r="B443" s="49" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C443" s="50" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D443" s="50" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E443" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F443" s="47" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G443" s="47" t="s">
         <v>95</v>
@@ -24409,7 +24412,7 @@
         <v>46</v>
       </c>
       <c r="J443" s="50" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="K443" s="49" t="s">
         <v>40</v>
@@ -24424,22 +24427,22 @@
         <v>335</v>
       </c>
       <c r="B444" s="49" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C444" s="50" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D444" s="50" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E444" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F444" s="47" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G444" s="47" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H444" s="52" t="s">
         <v>45</v>
@@ -24461,22 +24464,22 @@
         <v>336</v>
       </c>
       <c r="B445" s="49" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C445" s="50" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D445" s="50" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E445" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F445" s="47" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G445" s="47" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H445" s="52" t="s">
         <v>33</v>
@@ -24485,7 +24488,7 @@
         <v>25</v>
       </c>
       <c r="J445" s="50" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="K445" s="49" t="s">
         <v>40</v>
@@ -24564,7 +24567,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="48" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B449" s="48"/>
       <c r="C449" s="48"/>
@@ -24586,19 +24589,19 @@
         <v>337</v>
       </c>
       <c r="B450" s="49" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C450" s="50" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D450" s="50" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E450" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F450" s="47" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G450" s="47"/>
       <c r="H450" s="52" t="s">
@@ -24621,19 +24624,19 @@
         <v>338</v>
       </c>
       <c r="B451" s="49" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C451" s="50" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D451" s="50" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E451" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F451" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G451" s="47" t="s">
         <v>100</v>
@@ -24645,7 +24648,7 @@
         <v>25</v>
       </c>
       <c r="J451" s="50" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="K451" s="49" t="s">
         <v>27</v>
@@ -24660,19 +24663,19 @@
         <v>339</v>
       </c>
       <c r="B452" s="49" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C452" s="50" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D452" s="50" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E452" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F452" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G452" s="47" t="s">
         <v>601</v>
@@ -24684,7 +24687,7 @@
         <v>46</v>
       </c>
       <c r="J452" s="130" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="K452" s="49" t="s">
         <v>27</v>
@@ -24699,19 +24702,19 @@
         <v>340</v>
       </c>
       <c r="B453" s="49" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C453" s="50" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D453" s="50" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E453" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F453" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G453" s="47" t="s">
         <v>967</v>
@@ -24736,19 +24739,19 @@
         <v>341</v>
       </c>
       <c r="B454" s="49" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C454" s="50" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D454" s="50" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E454" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F454" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G454" s="47" t="s">
         <v>1011</v>
@@ -24773,19 +24776,19 @@
         <v>342</v>
       </c>
       <c r="B455" s="49" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C455" s="50" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D455" s="50" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E455" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F455" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G455" s="47" t="s">
         <v>38</v>
@@ -24810,19 +24813,19 @@
         <v>343</v>
       </c>
       <c r="B456" s="49" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C456" s="50" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D456" s="50" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E456" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F456" s="47" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G456" s="47" t="s">
         <v>601</v>
@@ -24911,7 +24914,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="48" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B460" s="48"/>
       <c r="C460" s="48"/>
@@ -24933,13 +24936,13 @@
         <v>344</v>
       </c>
       <c r="B461" s="49" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C461" s="50" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D461" s="50" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E461" s="47" t="s">
         <v>22</v>
@@ -24957,7 +24960,7 @@
         <v>46</v>
       </c>
       <c r="J461" s="50" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="K461" s="49" t="s">
         <v>27</v>
@@ -24972,19 +24975,19 @@
         <v>345</v>
       </c>
       <c r="B462" s="49" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C462" s="50" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D462" s="50" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E462" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F462" s="47" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G462" s="47" t="s">
         <v>601</v>
@@ -25009,19 +25012,19 @@
         <v>346</v>
       </c>
       <c r="B463" s="49" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C463" s="50" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D463" s="50" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E463" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F463" s="47" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G463" s="47" t="s">
         <v>601</v>
@@ -25046,19 +25049,19 @@
         <v>347</v>
       </c>
       <c r="B464" s="49" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C464" s="50" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D464" s="50" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E464" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F464" s="47" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G464" s="47" t="s">
         <v>601</v>
@@ -25083,19 +25086,19 @@
         <v>348</v>
       </c>
       <c r="B465" s="49" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C465" s="50" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D465" s="50" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E465" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F465" s="47" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G465" s="47" t="s">
         <v>601</v>
@@ -25184,7 +25187,7 @@
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="48" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B469" s="48"/>
       <c r="C469" s="48"/>
@@ -25206,13 +25209,13 @@
         <v>349</v>
       </c>
       <c r="B470" s="49" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C470" s="50" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D470" s="50" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E470" s="47" t="s">
         <v>22</v>
@@ -25243,19 +25246,19 @@
         <v>350</v>
       </c>
       <c r="B471" s="132" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C471" s="74" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D471" s="74" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E471" s="131" t="s">
         <v>31</v>
       </c>
       <c r="F471" s="131" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G471" s="131" t="s">
         <v>100</v>
@@ -25267,7 +25270,7 @@
         <v>25</v>
       </c>
       <c r="J471" s="74" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="K471" s="133" t="s">
         <v>27</v>
@@ -25554,19 +25557,19 @@
         <v>351</v>
       </c>
       <c r="B489" s="49" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C489" s="50" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D489" s="50" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E489" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F489" s="47" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G489" s="47" t="s">
         <v>601</v>
@@ -25578,7 +25581,7 @@
         <v>46</v>
       </c>
       <c r="J489" s="134" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="K489" s="49" t="s">
         <v>27</v>
@@ -25593,19 +25596,19 @@
         <v>352</v>
       </c>
       <c r="B490" s="49" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C490" s="50" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D490" s="50" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E490" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F490" s="47" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G490" s="47" t="s">
         <v>38</v>
@@ -25630,19 +25633,19 @@
         <v>353</v>
       </c>
       <c r="B491" s="49" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C491" s="50" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D491" s="50" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E491" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F491" s="47" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G491" s="47" t="s">
         <v>601</v>
@@ -25667,19 +25670,19 @@
         <v>354</v>
       </c>
       <c r="B492" s="49" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C492" s="50" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D492" s="50" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E492" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F492" s="47" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G492" s="47" t="s">
         <v>967</v>
@@ -25704,19 +25707,19 @@
         <v>355</v>
       </c>
       <c r="B493" s="49" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C493" s="50" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D493" s="50" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="E493" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F493" s="47" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G493" s="47" t="s">
         <v>1011</v>
@@ -25805,7 +25808,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="48" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B497" s="48"/>
       <c r="C497" s="48"/>
@@ -25827,13 +25830,13 @@
         <v>356</v>
       </c>
       <c r="B498" s="49" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C498" s="50" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D498" s="50" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E498" s="47" t="s">
         <v>22</v>
@@ -25851,7 +25854,7 @@
         <v>46</v>
       </c>
       <c r="J498" s="50" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="K498" s="49" t="s">
         <v>27</v>
@@ -25866,19 +25869,19 @@
         <v>357</v>
       </c>
       <c r="B499" s="49" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C499" s="50" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D499" s="50" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E499" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F499" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G499" s="47" t="s">
         <v>601</v>
@@ -25890,7 +25893,7 @@
         <v>46</v>
       </c>
       <c r="J499" s="60" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K499" s="49" t="s">
         <v>27</v>
@@ -25905,19 +25908,19 @@
         <v>358</v>
       </c>
       <c r="B500" s="49" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C500" s="50" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D500" s="50" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E500" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F500" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G500" s="47" t="s">
         <v>38</v>
@@ -25942,19 +25945,19 @@
         <v>359</v>
       </c>
       <c r="B501" s="49" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C501" s="50" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D501" s="50" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E501" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F501" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G501" s="47" t="s">
         <v>967</v>
@@ -25979,19 +25982,19 @@
         <v>360</v>
       </c>
       <c r="B502" s="49" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C502" s="50" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D502" s="50" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E502" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F502" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G502" s="47" t="s">
         <v>601</v>
@@ -26016,19 +26019,19 @@
         <v>361</v>
       </c>
       <c r="B503" s="49" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C503" s="50" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="D503" s="50" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E503" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F503" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G503" s="47" t="s">
         <v>601</v>
@@ -26053,19 +26056,19 @@
         <v>362</v>
       </c>
       <c r="B504" s="49" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C504" s="50" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D504" s="50" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E504" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F504" s="47" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G504" s="47" t="s">
         <v>129</v>
@@ -26077,7 +26080,7 @@
         <v>46</v>
       </c>
       <c r="J504" s="60" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="K504" s="49" t="s">
         <v>564</v>
@@ -26156,7 +26159,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="48" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B508" s="48"/>
       <c r="C508" s="48"/>
@@ -26178,13 +26181,13 @@
         <v>363</v>
       </c>
       <c r="B509" s="49" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C509" s="50" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D509" s="50" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E509" s="47" t="s">
         <v>22</v>
@@ -26215,19 +26218,19 @@
         <v>364</v>
       </c>
       <c r="B510" s="132" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C510" s="74" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D510" s="74" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="E510" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F510" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G510" s="47" t="s">
         <v>100</v>
@@ -26239,7 +26242,7 @@
         <v>25</v>
       </c>
       <c r="J510" s="74" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="K510" s="133" t="s">
         <v>27</v>
@@ -26688,19 +26691,19 @@
         <v>365</v>
       </c>
       <c r="B542" s="49" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C542" s="50" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D542" s="50" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E542" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F542" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G542" s="47" t="s">
         <v>601</v>
@@ -26712,7 +26715,7 @@
         <v>46</v>
       </c>
       <c r="J542" s="134" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="K542" s="49" t="s">
         <v>27</v>
@@ -26727,19 +26730,19 @@
         <v>366</v>
       </c>
       <c r="B543" s="49" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C543" s="50" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D543" s="50" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E543" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F543" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G543" s="47" t="s">
         <v>38</v>
@@ -26764,19 +26767,19 @@
         <v>367</v>
       </c>
       <c r="B544" s="49" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C544" s="50" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D544" s="50" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E544" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F544" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G544" s="47" t="s">
         <v>601</v>
@@ -26801,19 +26804,19 @@
         <v>368</v>
       </c>
       <c r="B545" s="49" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C545" s="50" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D545" s="50" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E545" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F545" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G545" s="47" t="s">
         <v>967</v>
@@ -26838,19 +26841,19 @@
         <v>369</v>
       </c>
       <c r="B546" s="49" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C546" s="50" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D546" s="50" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E546" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F546" s="47" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G546" s="47" t="s">
         <v>1011</v>
@@ -26939,7 +26942,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="48" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B550" s="48"/>
       <c r="C550" s="48"/>
@@ -26961,13 +26964,13 @@
         <v>370</v>
       </c>
       <c r="B551" s="49" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="C551" s="50" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="D551" s="50" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="E551" s="47" t="s">
         <v>22</v>
@@ -26998,19 +27001,19 @@
         <v>371</v>
       </c>
       <c r="B552" s="49" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C552" s="50" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D552" s="50" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E552" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F552" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G552" s="47" t="s">
         <v>601</v>
@@ -27022,7 +27025,7 @@
         <v>46</v>
       </c>
       <c r="J552" s="135" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="K552" s="49" t="s">
         <v>27</v>
@@ -27037,19 +27040,19 @@
         <v>372</v>
       </c>
       <c r="B553" s="49" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C553" s="50" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D553" s="50" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E553" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F553" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G553" s="47" t="s">
         <v>601</v>
@@ -27074,19 +27077,19 @@
         <v>373</v>
       </c>
       <c r="B554" s="49" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C554" s="50" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D554" s="50" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E554" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F554" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G554" s="47" t="s">
         <v>967</v>
@@ -27111,19 +27114,19 @@
         <v>374</v>
       </c>
       <c r="B555" s="49" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C555" s="50" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D555" s="50" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="E555" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F555" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G555" s="47" t="s">
         <v>1011</v>
@@ -27148,19 +27151,19 @@
         <v>375</v>
       </c>
       <c r="B556" s="49" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="C556" s="50" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="D556" s="50" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E556" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F556" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G556" s="47" t="s">
         <v>601</v>
@@ -27185,19 +27188,19 @@
         <v>376</v>
       </c>
       <c r="B557" s="49" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C557" s="50" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D557" s="50" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E557" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F557" s="47" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G557" s="47" t="s">
         <v>129</v>
@@ -27209,7 +27212,7 @@
         <v>46</v>
       </c>
       <c r="J557" s="50" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="K557" s="49" t="s">
         <v>564</v>
@@ -27288,7 +27291,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="48" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B561" s="48"/>
       <c r="C561" s="48"/>
@@ -27310,13 +27313,13 @@
         <v>377</v>
       </c>
       <c r="B562" s="49" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C562" s="50" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D562" s="50" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="E562" s="47" t="s">
         <v>808</v>
@@ -27334,7 +27337,7 @@
         <v>46</v>
       </c>
       <c r="J562" s="50" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="K562" s="49" t="s">
         <v>27</v>
@@ -27349,19 +27352,19 @@
         <v>378</v>
       </c>
       <c r="B563" s="49" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C563" s="50" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D563" s="50" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E563" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F563" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G563" s="47" t="s">
         <v>601</v>
@@ -27386,19 +27389,19 @@
         <v>379</v>
       </c>
       <c r="B564" s="49" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C564" s="50" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D564" s="50" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E564" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F564" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G564" s="47" t="s">
         <v>38</v>
@@ -27423,19 +27426,19 @@
         <v>380</v>
       </c>
       <c r="B565" s="49" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C565" s="50" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D565" s="50" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E565" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F565" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G565" s="47" t="s">
         <v>601</v>
@@ -27460,19 +27463,19 @@
         <v>381</v>
       </c>
       <c r="B566" s="49" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C566" s="50" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D566" s="50" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E566" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F566" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G566" s="47" t="s">
         <v>150</v>
@@ -27499,22 +27502,22 @@
         <v>382</v>
       </c>
       <c r="B567" s="23" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C567" s="24" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D567" s="24" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="E567" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F567" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G567" s="19" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H567" s="25" t="s">
         <v>33</v>
@@ -27523,7 +27526,7 @@
         <v>25</v>
       </c>
       <c r="J567" s="24" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="K567" s="23" t="s">
         <v>27</v>
@@ -27538,19 +27541,19 @@
         <v>383</v>
       </c>
       <c r="B568" s="23" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C568" s="24" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D568" s="24" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E568" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F568" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G568" s="19" t="s">
         <v>1161</v>
@@ -27575,19 +27578,19 @@
         <v>384</v>
       </c>
       <c r="B569" s="23" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C569" s="24" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D569" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="E569" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F569" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G569" s="19" t="s">
         <v>1161</v>
@@ -27599,7 +27602,7 @@
         <v>46</v>
       </c>
       <c r="J569" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="K569" s="23" t="s">
         <v>27</v>
@@ -27614,19 +27617,19 @@
         <v>385</v>
       </c>
       <c r="B570" s="23" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C570" s="24" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D570" s="24" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E570" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F570" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G570" s="19" t="s">
         <v>1161</v>
@@ -27651,19 +27654,19 @@
         <v>386</v>
       </c>
       <c r="B571" s="23" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C571" s="24" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="D571" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E571" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F571" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G571" s="19" t="s">
         <v>1161</v>
@@ -27688,19 +27691,19 @@
         <v>387</v>
       </c>
       <c r="B572" s="23" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C572" s="24" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D572" s="24" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="E572" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F572" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G572" s="19" t="s">
         <v>129</v>
@@ -27712,7 +27715,7 @@
         <v>25</v>
       </c>
       <c r="J572" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="K572" s="23" t="s">
         <v>27</v>
@@ -27727,19 +27730,19 @@
         <v>388</v>
       </c>
       <c r="B573" s="23" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C573" s="24" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D573" s="24" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E573" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F573" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G573" s="19" t="s">
         <v>1161</v>
@@ -27751,7 +27754,7 @@
         <v>46</v>
       </c>
       <c r="J573" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="K573" s="23" t="s">
         <v>27</v>
@@ -27766,19 +27769,19 @@
         <v>389</v>
       </c>
       <c r="B574" s="23" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C574" s="24" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D574" s="24" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="E574" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F574" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G574" s="19" t="s">
         <v>129</v>
@@ -27790,7 +27793,7 @@
         <v>25</v>
       </c>
       <c r="J574" s="24" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="K574" s="23" t="s">
         <v>27</v>
@@ -27805,22 +27808,22 @@
         <v>390</v>
       </c>
       <c r="B575" s="23" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C575" s="24" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D575" s="24" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="E575" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F575" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G575" s="19" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H575" s="25" t="s">
         <v>45</v>
@@ -27842,19 +27845,19 @@
         <v>391</v>
       </c>
       <c r="B576" s="23" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C576" s="24" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D576" s="24" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E576" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F576" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G576" s="19" t="s">
         <v>150</v>
@@ -27881,19 +27884,19 @@
         <v>392</v>
       </c>
       <c r="B577" s="23" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C577" s="24" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D577" s="24" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E577" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F577" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G577" s="19" t="s">
         <v>206</v>
@@ -27905,7 +27908,7 @@
         <v>46</v>
       </c>
       <c r="J577" s="24" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="K577" s="23" t="s">
         <v>27</v>
@@ -27920,22 +27923,22 @@
         <v>393</v>
       </c>
       <c r="B578" s="23" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C578" s="24" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D578" s="24" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="E578" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F578" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G578" s="19" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H578" s="25" t="s">
         <v>45</v>
@@ -27944,7 +27947,7 @@
         <v>46</v>
       </c>
       <c r="J578" s="24" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="K578" s="23" t="s">
         <v>27</v>
@@ -27959,19 +27962,19 @@
         <v>394</v>
       </c>
       <c r="B579" s="23" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C579" s="24" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="D579" s="24" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="E579" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F579" s="47" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G579" s="19" t="s">
         <v>129</v>
@@ -27983,7 +27986,7 @@
         <v>25</v>
       </c>
       <c r="J579" s="24" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="K579" s="23" t="s">
         <v>27</v>
@@ -28063,7 +28066,7 @@
     </row>
     <row r="583" s="140" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="139" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B583" s="139"/>
       <c r="C583" s="139"/>
@@ -28085,13 +28088,13 @@
         <v>395</v>
       </c>
       <c r="B584" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C584" s="141" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D584" s="142" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E584" s="19" t="s">
         <v>22</v>
@@ -28109,7 +28112,7 @@
         <v>46</v>
       </c>
       <c r="J584" s="142" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="K584" s="143" t="s">
         <v>27</v>
@@ -28124,19 +28127,19 @@
         <v>396</v>
       </c>
       <c r="B585" s="19" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C585" s="141" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D585" s="142" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E585" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F585" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G585" s="19" t="s">
         <v>1161</v>
@@ -28148,7 +28151,7 @@
         <v>25</v>
       </c>
       <c r="J585" s="142" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="K585" s="143" t="s">
         <v>27</v>
@@ -28163,19 +28166,19 @@
         <v>397</v>
       </c>
       <c r="B586" s="19" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C586" s="141" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="D586" s="142" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="E586" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F586" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G586" s="19" t="s">
         <v>1170</v>
@@ -28187,7 +28190,7 @@
         <v>46</v>
       </c>
       <c r="J586" s="142" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="K586" s="143" t="s">
         <v>27</v>
@@ -28202,19 +28205,19 @@
         <v>398</v>
       </c>
       <c r="B587" s="19" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C587" s="141" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D587" s="142" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="E587" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F587" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G587" s="19" t="s">
         <v>1170</v>
@@ -28226,7 +28229,7 @@
         <v>25</v>
       </c>
       <c r="J587" s="142" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="K587" s="143" t="s">
         <v>27</v>
@@ -28241,19 +28244,19 @@
         <v>399</v>
       </c>
       <c r="B588" s="19" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="C588" s="141" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="D588" s="142" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="E588" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F588" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G588" s="19" t="s">
         <v>1170</v>
@@ -28265,7 +28268,7 @@
         <v>25</v>
       </c>
       <c r="J588" s="142" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="K588" s="143" t="s">
         <v>27</v>
@@ -28280,19 +28283,19 @@
         <v>400</v>
       </c>
       <c r="B589" s="19" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C589" s="141" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D589" s="142" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E589" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F589" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G589" s="19" t="s">
         <v>1170</v>
@@ -28304,7 +28307,7 @@
         <v>25</v>
       </c>
       <c r="J589" s="142" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="K589" s="143" t="s">
         <v>27</v>
@@ -28319,19 +28322,19 @@
         <v>401</v>
       </c>
       <c r="B590" s="19" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="C590" s="141" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D590" s="142" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="E590" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F590" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G590" s="19" t="s">
         <v>1161</v>
@@ -28343,7 +28346,7 @@
         <v>46</v>
       </c>
       <c r="J590" s="142" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="K590" s="143" t="s">
         <v>27</v>
@@ -28358,19 +28361,19 @@
         <v>402</v>
       </c>
       <c r="B591" s="19" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C591" s="141" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D591" s="142" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E591" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F591" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G591" s="19" t="s">
         <v>1161</v>
@@ -28382,7 +28385,7 @@
         <v>25</v>
       </c>
       <c r="J591" s="142" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="K591" s="143" t="s">
         <v>27</v>
@@ -28397,19 +28400,19 @@
         <v>403</v>
       </c>
       <c r="B592" s="19" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C592" s="141" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D592" s="142" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="E592" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F592" s="19" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G592" s="19" t="s">
         <v>1161</v>
@@ -28421,7 +28424,7 @@
         <v>25</v>
       </c>
       <c r="J592" s="142" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="K592" s="143" t="s">
         <v>27</v>
@@ -28436,19 +28439,19 @@
         <v>404</v>
       </c>
       <c r="B593" s="22" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C593" s="144" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D593" s="91" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E593" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F593" s="22" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G593" s="22" t="s">
         <v>1161</v>
@@ -28537,7 +28540,7 @@
     </row>
     <row r="597" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="139" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B597" s="139"/>
       <c r="C597" s="139"/>
@@ -28559,13 +28562,13 @@
         <v>405</v>
       </c>
       <c r="B598" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="C598" s="141" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="D598" s="142" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E598" s="19" t="s">
         <v>22</v>
@@ -28581,7 +28584,7 @@
         <v>46</v>
       </c>
       <c r="J598" s="142" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="K598" s="143" t="s">
         <v>27</v>
@@ -28596,22 +28599,22 @@
         <v>406</v>
       </c>
       <c r="B599" s="19" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C599" s="141" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D599" s="142" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E599" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F599" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G599" s="19" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H599" s="28" t="s">
         <v>33</v>
@@ -28620,7 +28623,7 @@
         <v>25</v>
       </c>
       <c r="J599" s="142" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="K599" s="143" t="s">
         <v>27</v>
@@ -28699,7 +28702,7 @@
     </row>
     <row r="603" s="35" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="70" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B603" s="70"/>
       <c r="C603" s="70"/>
@@ -28721,19 +28724,19 @@
         <v>407</v>
       </c>
       <c r="B604" s="22" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C604" s="144" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D604" s="91" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="E604" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F604" s="22" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G604" s="22"/>
       <c r="H604" s="25" t="s">
@@ -28756,19 +28759,19 @@
         <v>408</v>
       </c>
       <c r="B605" s="22" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C605" s="144" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D605" s="91" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E605" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F605" s="22" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="G605" s="22" t="s">
         <v>1161</v>
@@ -28857,7 +28860,7 @@
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="139" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B609" s="139"/>
       <c r="C609" s="139"/>
@@ -28879,19 +28882,19 @@
         <v>409</v>
       </c>
       <c r="B610" s="19" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C610" s="141" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D610" s="142" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E610" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F610" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G610" s="19"/>
       <c r="H610" s="28" t="s">
@@ -28901,7 +28904,7 @@
         <v>46</v>
       </c>
       <c r="J610" s="142" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="K610" s="143" t="s">
         <v>27</v>
@@ -28916,19 +28919,19 @@
         <v>410</v>
       </c>
       <c r="B611" s="19" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C611" s="141" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D611" s="142" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="E611" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F611" s="19" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="G611" s="19"/>
       <c r="H611" s="28" t="s">
@@ -28938,7 +28941,7 @@
         <v>46</v>
       </c>
       <c r="J611" s="154" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="K611" s="143" t="s">
         <v>27</v>
@@ -28953,19 +28956,19 @@
         <v>411</v>
       </c>
       <c r="B612" s="51" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C612" s="155" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="D612" s="155" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E612" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F612" s="51" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G612" s="51" t="s">
         <v>776</v>
@@ -28977,7 +28980,7 @@
         <v>25</v>
       </c>
       <c r="J612" s="155" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="K612" s="51"/>
       <c r="L612" s="51" t="n">
@@ -28990,22 +28993,22 @@
         <v>412</v>
       </c>
       <c r="B613" s="51" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C613" s="155" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D613" s="155" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E613" s="156" t="s">
         <v>31</v>
       </c>
       <c r="F613" s="51" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G613" s="156" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H613" s="156" t="s">
         <v>33</v>
@@ -29014,7 +29017,7 @@
         <v>25</v>
       </c>
       <c r="J613" s="157" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="K613" s="157"/>
       <c r="L613" s="158" t="n">
@@ -29091,7 +29094,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="139" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B617" s="139"/>
       <c r="C617" s="139"/>
@@ -29113,19 +29116,19 @@
         <v>413</v>
       </c>
       <c r="B618" s="19" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C618" s="141" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="D618" s="142" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="E618" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F618" s="19" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G618" s="19"/>
       <c r="H618" s="28" t="s">
@@ -29148,19 +29151,19 @@
         <v>414</v>
       </c>
       <c r="B619" s="19" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C619" s="141" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D619" s="142" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="E619" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F619" s="19" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="G619" s="19"/>
       <c r="H619" s="28" t="s">
@@ -29170,7 +29173,7 @@
         <v>46</v>
       </c>
       <c r="J619" s="154" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="K619" s="143" t="s">
         <v>27</v>
@@ -29185,19 +29188,19 @@
         <v>415</v>
       </c>
       <c r="B620" s="51" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C620" s="155" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D620" s="155" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E620" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F620" s="51" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="G620" s="51" t="s">
         <v>776</v>
@@ -29209,7 +29212,7 @@
         <v>25</v>
       </c>
       <c r="J620" s="155" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="K620" s="51"/>
       <c r="L620" s="51" t="n">
@@ -29222,22 +29225,22 @@
         <v>416</v>
       </c>
       <c r="B621" s="51" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C621" s="155" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D621" s="155" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E621" s="156" t="s">
         <v>31</v>
       </c>
       <c r="F621" s="51" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="G621" s="156" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H621" s="156" t="s">
         <v>33</v>
@@ -29246,7 +29249,7 @@
         <v>25</v>
       </c>
       <c r="J621" s="157" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="K621" s="157"/>
       <c r="L621" s="156" t="n">
@@ -29323,7 +29326,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="48" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B625" s="48"/>
       <c r="C625" s="48"/>
@@ -29345,13 +29348,13 @@
         <v>417</v>
       </c>
       <c r="B626" s="49" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C626" s="50" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D626" s="50" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E626" s="47" t="s">
         <v>22</v>
@@ -29382,19 +29385,19 @@
         <v>418</v>
       </c>
       <c r="B627" s="49" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C627" s="50" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="D627" s="50" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="E627" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F627" s="47" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G627" s="47" t="s">
         <v>24</v>
@@ -29419,19 +29422,19 @@
         <v>419</v>
       </c>
       <c r="B628" s="49" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="C628" s="50" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="D628" s="50" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="E628" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F628" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G628" s="47" t="s">
         <v>601</v>
@@ -29443,7 +29446,7 @@
         <v>25</v>
       </c>
       <c r="J628" s="50" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="K628" s="49" t="s">
         <v>27</v>
@@ -29458,19 +29461,19 @@
         <v>420</v>
       </c>
       <c r="B629" s="49" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C629" s="50" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D629" s="50" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="E629" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F629" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G629" s="47" t="s">
         <v>601</v>
@@ -29482,7 +29485,7 @@
         <v>25</v>
       </c>
       <c r="J629" s="50" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="K629" s="49" t="s">
         <v>27</v>
@@ -29497,19 +29500,19 @@
         <v>421</v>
       </c>
       <c r="B630" s="23" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C630" s="24" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D630" s="24" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="E630" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F630" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G630" s="22" t="s">
         <v>1161</v>
@@ -29521,7 +29524,7 @@
         <v>46</v>
       </c>
       <c r="J630" s="24" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="K630" s="23" t="s">
         <v>27</v>
@@ -29536,19 +29539,19 @@
         <v>422</v>
       </c>
       <c r="B631" s="49" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C631" s="50" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D631" s="50" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="E631" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F631" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G631" s="47" t="s">
         <v>601</v>
@@ -29560,7 +29563,7 @@
         <v>25</v>
       </c>
       <c r="J631" s="50" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="K631" s="49" t="s">
         <v>27</v>
@@ -29575,19 +29578,19 @@
         <v>423</v>
       </c>
       <c r="B632" s="49" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C632" s="50" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D632" s="50" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="E632" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F632" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G632" s="47" t="s">
         <v>601</v>
@@ -29599,7 +29602,7 @@
         <v>25</v>
       </c>
       <c r="J632" s="50" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="K632" s="49" t="s">
         <v>27</v>
@@ -29614,19 +29617,19 @@
         <v>424</v>
       </c>
       <c r="B633" s="49" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C633" s="50" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D633" s="50" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E633" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F633" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G633" s="47" t="s">
         <v>601</v>
@@ -29638,7 +29641,7 @@
         <v>25</v>
       </c>
       <c r="J633" s="50" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K633" s="49" t="s">
         <v>27</v>
@@ -29653,10 +29656,10 @@
         <v>425</v>
       </c>
       <c r="B634" s="49" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C634" s="50" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D634" s="50" t="s">
         <v>622</v>
@@ -29665,7 +29668,7 @@
         <v>31</v>
       </c>
       <c r="F634" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G634" s="47" t="s">
         <v>601</v>
@@ -29677,7 +29680,7 @@
         <v>25</v>
       </c>
       <c r="J634" s="50" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K634" s="49" t="s">
         <v>27</v>
@@ -29692,10 +29695,10 @@
         <v>426</v>
       </c>
       <c r="B635" s="49" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C635" s="50" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="D635" s="50" t="s">
         <v>625</v>
@@ -29704,7 +29707,7 @@
         <v>31</v>
       </c>
       <c r="F635" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G635" s="47" t="s">
         <v>601</v>
@@ -29716,7 +29719,7 @@
         <v>25</v>
       </c>
       <c r="J635" s="50" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="K635" s="49" t="s">
         <v>27</v>
@@ -29731,19 +29734,19 @@
         <v>427</v>
       </c>
       <c r="B636" s="49" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C636" s="50" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D636" s="50" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E636" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F636" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G636" s="47" t="s">
         <v>601</v>
@@ -29755,7 +29758,7 @@
         <v>25</v>
       </c>
       <c r="J636" s="50" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="K636" s="49" t="s">
         <v>27</v>
@@ -29770,19 +29773,19 @@
         <v>428</v>
       </c>
       <c r="B637" s="49" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C637" s="50" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D637" s="50" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="E637" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F637" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G637" s="47" t="s">
         <v>601</v>
@@ -29794,7 +29797,7 @@
         <v>25</v>
       </c>
       <c r="J637" s="50" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="K637" s="49" t="s">
         <v>27</v>
@@ -29809,19 +29812,19 @@
         <v>429</v>
       </c>
       <c r="B638" s="49" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="C638" s="50" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="D638" s="50" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E638" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F638" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G638" s="47" t="s">
         <v>601</v>
@@ -29833,7 +29836,7 @@
         <v>25</v>
       </c>
       <c r="J638" s="50" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="K638" s="49" t="s">
         <v>27</v>
@@ -29848,19 +29851,19 @@
         <v>430</v>
       </c>
       <c r="B639" s="49" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C639" s="50" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D639" s="50" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E639" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F639" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G639" s="47" t="s">
         <v>601</v>
@@ -29872,7 +29875,7 @@
         <v>25</v>
       </c>
       <c r="J639" s="50" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="K639" s="49" t="s">
         <v>27</v>
@@ -29887,19 +29890,19 @@
         <v>431</v>
       </c>
       <c r="B640" s="49" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C640" s="50" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D640" s="50" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E640" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F640" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G640" s="47" t="s">
         <v>601</v>
@@ -29911,7 +29914,7 @@
         <v>25</v>
       </c>
       <c r="J640" s="50" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="K640" s="49" t="s">
         <v>27</v>
@@ -29926,19 +29929,19 @@
         <v>432</v>
       </c>
       <c r="B641" s="49" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="C641" s="50" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D641" s="50" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="E641" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F641" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G641" s="47" t="s">
         <v>601</v>
@@ -29950,7 +29953,7 @@
         <v>25</v>
       </c>
       <c r="J641" s="50" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="K641" s="49" t="s">
         <v>27</v>
@@ -29965,19 +29968,19 @@
         <v>433</v>
       </c>
       <c r="B642" s="49" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C642" s="50" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="D642" s="50" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="E642" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F642" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G642" s="47" t="s">
         <v>601</v>
@@ -29989,7 +29992,7 @@
         <v>25</v>
       </c>
       <c r="J642" s="50" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="K642" s="49" t="s">
         <v>564</v>
@@ -30004,19 +30007,19 @@
         <v>434</v>
       </c>
       <c r="B643" s="49" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C643" s="50" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D643" s="50" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="E643" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F643" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G643" s="47" t="s">
         <v>994</v>
@@ -30028,7 +30031,7 @@
         <v>46</v>
       </c>
       <c r="J643" s="50" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="K643" s="49" t="s">
         <v>27</v>
@@ -30043,19 +30046,19 @@
         <v>435</v>
       </c>
       <c r="B644" s="23" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C644" s="24" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D644" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="E644" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F644" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G644" s="22" t="s">
         <v>1161</v>
@@ -30067,7 +30070,7 @@
         <v>46</v>
       </c>
       <c r="J644" s="24" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="K644" s="23" t="s">
         <v>27</v>
@@ -30082,19 +30085,19 @@
         <v>436</v>
       </c>
       <c r="B645" s="23" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C645" s="24" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="D645" s="24" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="E645" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F645" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G645" s="22" t="s">
         <v>1161</v>
@@ -30106,7 +30109,7 @@
         <v>46</v>
       </c>
       <c r="J645" s="24" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="K645" s="23" t="s">
         <v>27</v>
@@ -30121,19 +30124,19 @@
         <v>437</v>
       </c>
       <c r="B646" s="23" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C646" s="24" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="D646" s="24" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="E646" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F646" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G646" s="22" t="s">
         <v>1161</v>
@@ -30145,7 +30148,7 @@
         <v>46</v>
       </c>
       <c r="J646" s="24" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="K646" s="23" t="s">
         <v>27</v>
@@ -30160,19 +30163,19 @@
         <v>438</v>
       </c>
       <c r="B647" s="23" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C647" s="24" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D647" s="24" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="E647" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F647" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G647" s="47" t="s">
         <v>994</v>
@@ -30197,19 +30200,19 @@
         <v>439</v>
       </c>
       <c r="B648" s="23" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C648" s="24" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D648" s="24" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="E648" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F648" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G648" s="47" t="s">
         <v>994</v>
@@ -30234,19 +30237,19 @@
         <v>440</v>
       </c>
       <c r="B649" s="23" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C649" s="24" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D649" s="24" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="E649" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F649" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G649" s="47" t="s">
         <v>994</v>
@@ -30271,19 +30274,19 @@
         <v>441</v>
       </c>
       <c r="B650" s="23" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C650" s="24" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D650" s="24" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E650" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F650" s="47" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G650" s="47" t="s">
         <v>994</v>
@@ -30308,19 +30311,19 @@
         <v>442</v>
       </c>
       <c r="B651" s="106" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C651" s="107" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D651" s="107" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="E651" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F651" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G651" s="105" t="s">
         <v>601</v>
@@ -30345,19 +30348,19 @@
         <v>443</v>
       </c>
       <c r="B652" s="106" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C652" s="107" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D652" s="107" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E652" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F652" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G652" s="105" t="s">
         <v>601</v>
@@ -30382,19 +30385,19 @@
         <v>444</v>
       </c>
       <c r="B653" s="106" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C653" s="107" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D653" s="107" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="E653" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F653" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G653" s="105" t="s">
         <v>601</v>
@@ -30419,19 +30422,19 @@
         <v>445</v>
       </c>
       <c r="B654" s="106" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C654" s="107" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D654" s="107" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="E654" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F654" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G654" s="105" t="s">
         <v>601</v>
@@ -30456,19 +30459,19 @@
         <v>446</v>
       </c>
       <c r="B655" s="106" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C655" s="107" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D655" s="107" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="E655" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F655" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G655" s="105" t="s">
         <v>601</v>
@@ -30493,19 +30496,19 @@
         <v>447</v>
       </c>
       <c r="B656" s="106" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C656" s="107" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D656" s="107" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="E656" s="108" t="s">
         <v>31</v>
       </c>
       <c r="F656" s="105" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="G656" s="105" t="s">
         <v>601</v>
@@ -30594,7 +30597,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="48" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B660" s="48"/>
       <c r="C660" s="48"/>
@@ -30616,19 +30619,19 @@
         <v>448</v>
       </c>
       <c r="B661" s="49" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C661" s="50" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D661" s="50" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E661" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F661" s="47" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G661" s="47" t="s">
         <v>24</v>
@@ -30653,19 +30656,19 @@
         <v>449</v>
       </c>
       <c r="B662" s="49" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C662" s="50" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D662" s="50" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="E662" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F662" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G662" s="47" t="s">
         <v>601</v>
@@ -30677,7 +30680,7 @@
         <v>46</v>
       </c>
       <c r="J662" s="50" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="K662" s="49" t="s">
         <v>27</v>
@@ -30692,19 +30695,19 @@
         <v>450</v>
       </c>
       <c r="B663" s="49" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="C663" s="50" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D663" s="50" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E663" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F663" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G663" s="47" t="s">
         <v>601</v>
@@ -30716,7 +30719,7 @@
         <v>46</v>
       </c>
       <c r="J663" s="50" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="K663" s="49" t="s">
         <v>27</v>
@@ -30731,19 +30734,19 @@
         <v>451</v>
       </c>
       <c r="B664" s="49" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="C664" s="50" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D664" s="50" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="E664" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F664" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G664" s="47" t="s">
         <v>601</v>
@@ -30755,7 +30758,7 @@
         <v>46</v>
       </c>
       <c r="J664" s="50" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="K664" s="49" t="s">
         <v>27</v>
@@ -30770,19 +30773,19 @@
         <v>452</v>
       </c>
       <c r="B665" s="49" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C665" s="50" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D665" s="50" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="E665" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F665" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G665" s="47" t="s">
         <v>601</v>
@@ -30794,7 +30797,7 @@
         <v>46</v>
       </c>
       <c r="J665" s="50" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="K665" s="49" t="s">
         <v>27</v>
@@ -30809,19 +30812,19 @@
         <v>453</v>
       </c>
       <c r="B666" s="49" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C666" s="50" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="D666" s="50" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="E666" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F666" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G666" s="47" t="s">
         <v>601</v>
@@ -30833,7 +30836,7 @@
         <v>46</v>
       </c>
       <c r="J666" s="50" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="K666" s="49" t="s">
         <v>27</v>
@@ -30848,19 +30851,19 @@
         <v>454</v>
       </c>
       <c r="B667" s="23" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C667" s="24" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D667" s="24" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="E667" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F667" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G667" s="22" t="s">
         <v>115</v>
@@ -30872,7 +30875,7 @@
         <v>25</v>
       </c>
       <c r="J667" s="24" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="K667" s="23" t="s">
         <v>27</v>
@@ -30887,19 +30890,19 @@
         <v>455</v>
       </c>
       <c r="B668" s="23" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C668" s="24" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="D668" s="24" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E668" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F668" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G668" s="22" t="s">
         <v>1161</v>
@@ -30924,19 +30927,19 @@
         <v>456</v>
       </c>
       <c r="B669" s="23" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C669" s="24" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D669" s="24" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="E669" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F669" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G669" s="22" t="s">
         <v>1161</v>
@@ -30948,7 +30951,7 @@
         <v>46</v>
       </c>
       <c r="J669" s="24" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="K669" s="23" t="s">
         <v>27</v>
@@ -30963,19 +30966,19 @@
         <v>457</v>
       </c>
       <c r="B670" s="23" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C670" s="24" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="D670" s="24" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="E670" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F670" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G670" s="22" t="s">
         <v>1161</v>
@@ -31000,19 +31003,19 @@
         <v>458</v>
       </c>
       <c r="B671" s="23" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C671" s="24" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D671" s="24" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E671" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F671" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G671" s="22" t="s">
         <v>1161</v>
@@ -31037,19 +31040,19 @@
         <v>459</v>
       </c>
       <c r="B672" s="23" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C672" s="24" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="D672" s="24" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="E672" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F672" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G672" s="22" t="s">
         <v>1161</v>
@@ -31074,19 +31077,19 @@
         <v>460</v>
       </c>
       <c r="B673" s="23" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C673" s="24" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="D673" s="24" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="E673" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F673" s="47" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="G673" s="22" t="s">
         <v>90</v>
@@ -31098,7 +31101,7 @@
         <v>46</v>
       </c>
       <c r="J673" s="24" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="K673" s="23" t="s">
         <v>27</v>
@@ -31178,7 +31181,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="48" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="B677" s="48"/>
       <c r="C677" s="48"/>
@@ -31200,19 +31203,19 @@
         <v>461</v>
       </c>
       <c r="B678" s="49" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C678" s="50" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D678" s="50" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E678" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F678" s="47" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G678" s="47" t="s">
         <v>24</v>
@@ -31237,19 +31240,19 @@
         <v>462</v>
       </c>
       <c r="B679" s="49" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C679" s="50" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="D679" s="50" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E679" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F679" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G679" s="47" t="s">
         <v>601</v>
@@ -31261,7 +31264,7 @@
         <v>46</v>
       </c>
       <c r="J679" s="60" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="K679" s="49" t="s">
         <v>27</v>
@@ -31276,19 +31279,19 @@
         <v>463</v>
       </c>
       <c r="B680" s="49" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C680" s="50" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D680" s="50" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E680" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F680" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G680" s="47" t="s">
         <v>601</v>
@@ -31313,19 +31316,19 @@
         <v>464</v>
       </c>
       <c r="B681" s="49" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C681" s="50" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D681" s="50" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="E681" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F681" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G681" s="47" t="s">
         <v>601</v>
@@ -31350,19 +31353,19 @@
         <v>465</v>
       </c>
       <c r="B682" s="49" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C682" s="50" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="D682" s="50" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="E682" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F682" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G682" s="47" t="s">
         <v>601</v>
@@ -31387,19 +31390,19 @@
         <v>466</v>
       </c>
       <c r="B683" s="49" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C683" s="50" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="D683" s="50" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E683" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F683" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G683" s="47" t="s">
         <v>601</v>
@@ -31424,19 +31427,19 @@
         <v>467</v>
       </c>
       <c r="B684" s="49" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C684" s="50" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="D684" s="50" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="E684" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F684" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G684" s="47" t="s">
         <v>601</v>
@@ -31461,19 +31464,19 @@
         <v>468</v>
       </c>
       <c r="B685" s="49" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C685" s="50" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="D685" s="50" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="E685" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F685" s="47" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G685" s="47" t="s">
         <v>601</v>
@@ -31562,7 +31565,7 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="159" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B689" s="159"/>
       <c r="C689" s="159"/>
@@ -31584,13 +31587,13 @@
         <v>469</v>
       </c>
       <c r="B690" s="49" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C690" s="50" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="D690" s="50" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="E690" s="47" t="s">
         <v>22</v>
@@ -31621,19 +31624,19 @@
         <v>470</v>
       </c>
       <c r="B691" s="49" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C691" s="50" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="D691" s="50" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="E691" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F691" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G691" s="47" t="s">
         <v>129</v>
@@ -31645,7 +31648,7 @@
         <v>25</v>
       </c>
       <c r="J691" s="50" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="K691" s="49" t="s">
         <v>40</v>
@@ -31660,22 +31663,22 @@
         <v>471</v>
       </c>
       <c r="B692" s="49" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C692" s="50" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D692" s="50" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E692" s="47" t="s">
         <v>211</v>
       </c>
       <c r="F692" s="51" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G692" s="47" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H692" s="52" t="s">
         <v>45</v>
@@ -31697,22 +31700,22 @@
         <v>472</v>
       </c>
       <c r="B693" s="49" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C693" s="50" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D693" s="50" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E693" s="47" t="s">
         <v>211</v>
       </c>
       <c r="F693" s="51" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G693" s="47" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H693" s="52" t="s">
         <v>45</v>
@@ -31798,7 +31801,7 @@
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="159" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B697" s="159"/>
       <c r="C697" s="159"/>
@@ -31820,19 +31823,19 @@
         <v>473</v>
       </c>
       <c r="B698" s="49" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C698" s="50" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="D698" s="50" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E698" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F698" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G698" s="47" t="s">
         <v>24</v>
@@ -31857,10 +31860,10 @@
         <v>474</v>
       </c>
       <c r="B699" s="49" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C699" s="50" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D699" s="50" t="s">
         <v>438</v>
@@ -31869,7 +31872,7 @@
         <v>211</v>
       </c>
       <c r="F699" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G699" s="47" t="s">
         <v>212</v>
@@ -31881,7 +31884,7 @@
         <v>46</v>
       </c>
       <c r="J699" s="50" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="K699" s="49" t="s">
         <v>27</v>
@@ -31896,10 +31899,10 @@
         <v>475</v>
       </c>
       <c r="B700" s="49" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C700" s="50" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="D700" s="50" t="s">
         <v>442</v>
@@ -31908,7 +31911,7 @@
         <v>211</v>
       </c>
       <c r="F700" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G700" s="47" t="s">
         <v>217</v>
@@ -31933,19 +31936,19 @@
         <v>476</v>
       </c>
       <c r="B701" s="49" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C701" s="50" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="D701" s="50" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="E701" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F701" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G701" s="47" t="s">
         <v>95</v>
@@ -31970,10 +31973,10 @@
         <v>477</v>
       </c>
       <c r="B702" s="49" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C702" s="50" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D702" s="50" t="s">
         <v>285</v>
@@ -31982,7 +31985,7 @@
         <v>31</v>
       </c>
       <c r="F702" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G702" s="47" t="s">
         <v>212</v>
@@ -31994,7 +31997,7 @@
         <v>46</v>
       </c>
       <c r="J702" s="50" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="K702" s="49" t="s">
         <v>27</v>
@@ -32009,19 +32012,19 @@
         <v>478</v>
       </c>
       <c r="B703" s="49" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C703" s="50" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D703" s="50" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E703" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F703" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G703" s="47" t="s">
         <v>95</v>
@@ -32046,10 +32049,10 @@
         <v>479</v>
       </c>
       <c r="B704" s="49" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C704" s="50" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="D704" s="50" t="s">
         <v>322</v>
@@ -32058,7 +32061,7 @@
         <v>31</v>
       </c>
       <c r="F704" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G704" s="47" t="s">
         <v>95</v>
@@ -32083,10 +32086,10 @@
         <v>480</v>
       </c>
       <c r="B705" s="49" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C705" s="50" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="D705" s="50" t="s">
         <v>326</v>
@@ -32095,7 +32098,7 @@
         <v>31</v>
       </c>
       <c r="F705" s="47" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G705" s="47" t="s">
         <v>100</v>
@@ -32107,7 +32110,7 @@
         <v>46</v>
       </c>
       <c r="J705" s="50" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="K705" s="49" t="s">
         <v>27</v>
@@ -32185,7 +32188,7 @@
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="159" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B709" s="159"/>
       <c r="C709" s="159"/>
@@ -32207,19 +32210,19 @@
         <v>481</v>
       </c>
       <c r="B710" s="49" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C710" s="50" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="D710" s="50" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="E710" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F710" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G710" s="47" t="s">
         <v>24</v>
@@ -32231,7 +32234,7 @@
         <v>46</v>
       </c>
       <c r="J710" s="50" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="K710" s="49" t="s">
         <v>27</v>
@@ -32246,19 +32249,19 @@
         <v>482</v>
       </c>
       <c r="B711" s="49" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C711" s="50" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="D711" s="50" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E711" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F711" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G711" s="47" t="s">
         <v>601</v>
@@ -32283,19 +32286,19 @@
         <v>483</v>
       </c>
       <c r="B712" s="49" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C712" s="50" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D712" s="50" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E712" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F712" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G712" s="47" t="s">
         <v>601</v>
@@ -32320,19 +32323,19 @@
         <v>484</v>
       </c>
       <c r="B713" s="49" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C713" s="50" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D713" s="50" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="E713" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F713" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G713" s="47" t="s">
         <v>38</v>
@@ -32357,19 +32360,19 @@
         <v>485</v>
       </c>
       <c r="B714" s="49" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C714" s="50" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="D714" s="50" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="E714" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F714" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G714" s="47" t="s">
         <v>601</v>
@@ -32394,19 +32397,19 @@
         <v>486</v>
       </c>
       <c r="B715" s="49" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C715" s="50" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="D715" s="50" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="E715" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F715" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G715" s="47" t="s">
         <v>206</v>
@@ -32418,7 +32421,7 @@
         <v>25</v>
       </c>
       <c r="J715" s="50" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="K715" s="160" t="s">
         <v>27</v>
@@ -32433,19 +32436,19 @@
         <v>487</v>
       </c>
       <c r="B716" s="49" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C716" s="50" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D716" s="50" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="E716" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F716" s="47" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G716" s="47" t="s">
         <v>150</v>
@@ -32535,7 +32538,7 @@
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="159" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B720" s="159"/>
       <c r="C720" s="159"/>
@@ -32557,19 +32560,19 @@
         <v>488</v>
       </c>
       <c r="B721" s="49" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C721" s="50" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="D721" s="50" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="E721" s="47" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="F721" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G721" s="47" t="s">
         <v>24</v>
@@ -32581,7 +32584,7 @@
         <v>46</v>
       </c>
       <c r="J721" s="50" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="K721" s="49" t="s">
         <v>27</v>
@@ -32596,19 +32599,19 @@
         <v>489</v>
       </c>
       <c r="B722" s="49" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C722" s="50" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D722" s="50" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E722" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F722" s="47" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G722" s="47" t="s">
         <v>693</v>
@@ -32620,7 +32623,7 @@
         <v>25</v>
       </c>
       <c r="J722" s="50" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="K722" s="49" t="s">
         <v>27</v>
@@ -32635,10 +32638,10 @@
         <v>490</v>
       </c>
       <c r="B723" s="49" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C723" s="50" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D723" s="50" t="s">
         <v>326</v>
@@ -32647,7 +32650,7 @@
         <v>31</v>
       </c>
       <c r="F723" s="47" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G723" s="47" t="s">
         <v>100</v>
@@ -32672,22 +32675,22 @@
         <v>491</v>
       </c>
       <c r="B724" s="49" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C724" s="50" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D724" s="49" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E724" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F724" s="47" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="G724" s="47" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H724" s="52" t="s">
         <v>45</v>
@@ -32772,7 +32775,7 @@
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="159" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B728" s="159"/>
       <c r="C728" s="159"/>
@@ -32794,19 +32797,19 @@
         <v>492</v>
       </c>
       <c r="B729" s="49" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C729" s="50" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D729" s="50" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E729" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F729" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G729" s="47" t="s">
         <v>24</v>
@@ -32818,7 +32821,7 @@
         <v>46</v>
       </c>
       <c r="J729" s="50" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="K729" s="49" t="s">
         <v>27</v>
@@ -32833,25 +32836,25 @@
         <v>493</v>
       </c>
       <c r="B730" s="49" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C730" s="50" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D730" s="50" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="E730" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F730" s="47" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="G730" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H730" s="52" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="I730" s="47" t="s">
         <v>25</v>
@@ -32872,19 +32875,19 @@
         <v>494</v>
       </c>
       <c r="B731" s="49" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C731" s="50" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D731" s="50" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E731" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F731" s="47" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G731" s="47" t="s">
         <v>693</v>
@@ -32896,7 +32899,7 @@
         <v>25</v>
       </c>
       <c r="J731" s="50" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="K731" s="49" t="s">
         <v>27</v>
@@ -32911,10 +32914,10 @@
         <v>495</v>
       </c>
       <c r="B732" s="49" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C732" s="50" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D732" s="50" t="s">
         <v>326</v>
@@ -32923,7 +32926,7 @@
         <v>31</v>
       </c>
       <c r="F732" s="47" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G732" s="47" t="s">
         <v>100</v>
@@ -32948,22 +32951,22 @@
         <v>496</v>
       </c>
       <c r="B733" s="49" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C733" s="50" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="D733" s="49" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E733" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F733" s="47" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="G733" s="47" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H733" s="52" t="s">
         <v>45</v>
@@ -33048,7 +33051,7 @@
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="159" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B737" s="159"/>
       <c r="C737" s="159"/>
@@ -33070,19 +33073,19 @@
         <v>497</v>
       </c>
       <c r="B738" s="49" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C738" s="50" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D738" s="50" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E738" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F738" s="47" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G738" s="47" t="s">
         <v>24</v>
@@ -33107,19 +33110,19 @@
         <v>498</v>
       </c>
       <c r="B739" s="49" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C739" s="50" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="D739" s="50" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="E739" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F739" s="47" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G739" s="47" t="s">
         <v>24</v>
@@ -33146,22 +33149,22 @@
         <v>499</v>
       </c>
       <c r="B740" s="49" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C740" s="50" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D740" s="50" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E740" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F740" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G740" s="47" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="H740" s="52" t="s">
         <v>33</v>
@@ -33170,7 +33173,7 @@
         <v>25</v>
       </c>
       <c r="J740" s="50" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="K740" s="49" t="s">
         <v>27</v>
@@ -33185,19 +33188,19 @@
         <v>500</v>
       </c>
       <c r="B741" s="49" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C741" s="50" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="D741" s="49" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E741" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F741" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G741" s="47" t="s">
         <v>95</v>
@@ -33209,7 +33212,7 @@
         <v>46</v>
       </c>
       <c r="J741" s="50" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="K741" s="49" t="s">
         <v>27</v>
@@ -33224,19 +33227,19 @@
         <v>501</v>
       </c>
       <c r="B742" s="49" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C742" s="50" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="D742" s="50" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="E742" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F742" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G742" s="47" t="s">
         <v>95</v>
@@ -33248,7 +33251,7 @@
         <v>46</v>
       </c>
       <c r="J742" s="50" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="K742" s="49" t="s">
         <v>27</v>
@@ -33263,19 +33266,19 @@
         <v>502</v>
       </c>
       <c r="B743" s="49" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C743" s="50" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="D743" s="49" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E743" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F743" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G743" s="47" t="s">
         <v>95</v>
@@ -33287,7 +33290,7 @@
         <v>46</v>
       </c>
       <c r="J743" s="50" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="K743" s="49" t="s">
         <v>27</v>
@@ -33302,19 +33305,19 @@
         <v>503</v>
       </c>
       <c r="B744" s="49" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C744" s="50" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D744" s="50" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E744" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F744" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G744" s="47" t="s">
         <v>1035</v>
@@ -33339,19 +33342,19 @@
         <v>504</v>
       </c>
       <c r="B745" s="49" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C745" s="50" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D745" s="50" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E745" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F745" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G745" s="47" t="s">
         <v>1035</v>
@@ -33439,7 +33442,7 @@
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="159" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B749" s="159"/>
       <c r="C749" s="159"/>
@@ -33461,19 +33464,19 @@
         <v>505</v>
       </c>
       <c r="B750" s="49" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C750" s="50" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="D750" s="50" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E750" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F750" s="47" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="G750" s="47" t="s">
         <v>24</v>
@@ -33498,19 +33501,19 @@
         <v>506</v>
       </c>
       <c r="B751" s="49" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C751" s="50" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D751" s="50" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E751" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F751" s="47" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="G751" s="47" t="s">
         <v>24</v>
@@ -33537,19 +33540,19 @@
         <v>507</v>
       </c>
       <c r="B752" s="49" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C752" s="50" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D752" s="50" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="E752" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F752" s="47" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="G752" s="47" t="s">
         <v>95</v>
@@ -33561,7 +33564,7 @@
         <v>25</v>
       </c>
       <c r="J752" s="50" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="K752" s="49" t="s">
         <v>27</v>
@@ -33639,7 +33642,7 @@
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="159" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B756" s="159"/>
       <c r="C756" s="159"/>
@@ -33661,13 +33664,13 @@
         <v>508</v>
       </c>
       <c r="B757" s="49" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C757" s="50" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="D757" s="50" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="E757" s="47" t="s">
         <v>22</v>
@@ -33698,19 +33701,19 @@
         <v>509</v>
       </c>
       <c r="B758" s="49" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C758" s="50" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D758" s="50" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="E758" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F758" s="47" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="G758" s="47" t="s">
         <v>24</v>
@@ -33735,19 +33738,19 @@
         <v>510</v>
       </c>
       <c r="B759" s="49" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C759" s="50" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D759" s="50" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E759" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F759" s="47" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="G759" s="47" t="s">
         <v>95</v>
@@ -33772,19 +33775,19 @@
         <v>511</v>
       </c>
       <c r="B760" s="49" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C760" s="50" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="D760" s="50" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="E760" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F760" s="47" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="G760" s="47" t="s">
         <v>601</v>
@@ -33809,19 +33812,19 @@
         <v>512</v>
       </c>
       <c r="B761" s="49" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C761" s="50" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D761" s="50" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E761" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F761" s="47" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="G761" s="47" t="s">
         <v>601</v>
@@ -33846,19 +33849,19 @@
         <v>513</v>
       </c>
       <c r="B762" s="49" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C762" s="50" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D762" s="50" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="E762" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F762" s="47" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="G762" s="47" t="s">
         <v>601</v>
@@ -33946,7 +33949,7 @@
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="159" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B766" s="159"/>
       <c r="C766" s="159"/>
@@ -33968,25 +33971,25 @@
         <v>514</v>
       </c>
       <c r="B767" s="49" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C767" s="50" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D767" s="50" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E767" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F767" s="47" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="G767" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H767" s="52" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="I767" s="47" t="s">
         <v>46</v>
@@ -34005,19 +34008,19 @@
         <v>515</v>
       </c>
       <c r="B768" s="49" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C768" s="50" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D768" s="50" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="E768" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F768" s="47" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="G768" s="47" t="s">
         <v>24</v>
@@ -34044,19 +34047,19 @@
         <v>516</v>
       </c>
       <c r="B769" s="49" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C769" s="50" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D769" s="50" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="E769" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F769" s="47" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G769" s="47" t="s">
         <v>95</v>
@@ -34068,7 +34071,7 @@
         <v>25</v>
       </c>
       <c r="J769" s="50" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="K769" s="49" t="s">
         <v>27</v>
@@ -34083,19 +34086,19 @@
         <v>517</v>
       </c>
       <c r="B770" s="49" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C770" s="50" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="D770" s="50" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="E770" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F770" s="47" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G770" s="47" t="s">
         <v>115</v>
@@ -34122,19 +34125,19 @@
         <v>518</v>
       </c>
       <c r="B771" s="49" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C771" s="50" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="D771" s="50" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="E771" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F771" s="47" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G771" s="47" t="s">
         <v>601</v>
@@ -34146,7 +34149,7 @@
         <v>25</v>
       </c>
       <c r="J771" s="50" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="K771" s="49" t="s">
         <v>27</v>
@@ -34224,7 +34227,7 @@
     </row>
     <row r="775" s="43" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="161" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B775" s="161"/>
       <c r="C775" s="161"/>
@@ -34246,13 +34249,13 @@
         <v>519</v>
       </c>
       <c r="B776" s="22" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C776" s="144" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="D776" s="144" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="E776" s="22" t="s">
         <v>22</v>
@@ -34268,7 +34271,7 @@
         <v>25</v>
       </c>
       <c r="J776" s="162" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="K776" s="22" t="s">
         <v>40</v>
@@ -34283,23 +34286,23 @@
         <v>520</v>
       </c>
       <c r="B777" s="19" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C777" s="141" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="D777" s="141" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="E777" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F777" s="19" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="G777" s="19"/>
       <c r="H777" s="19" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I777" s="19" t="s">
         <v>25</v>
@@ -34320,19 +34323,19 @@
         <v>521</v>
       </c>
       <c r="B778" s="22" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C778" s="144" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="D778" s="144" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E778" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F778" s="22" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="G778" s="22" t="s">
         <v>56</v>
@@ -34344,7 +34347,7 @@
         <v>46</v>
       </c>
       <c r="J778" s="91" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="K778" s="22" t="s">
         <v>40</v>
@@ -34359,19 +34362,19 @@
         <v>522</v>
       </c>
       <c r="B779" s="19" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C779" s="141" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="D779" s="141" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="E779" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F779" s="19" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G779" s="19" t="s">
         <v>100</v>
@@ -34383,10 +34386,10 @@
         <v>25</v>
       </c>
       <c r="J779" s="142" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="K779" s="19" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L779" s="19" t="s">
         <v>17</v>
@@ -34398,19 +34401,19 @@
         <v>523</v>
       </c>
       <c r="B780" s="19" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C780" s="141" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D780" s="141" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E780" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F780" s="19" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G780" s="19" t="s">
         <v>446</v>
@@ -34422,7 +34425,7 @@
         <v>46</v>
       </c>
       <c r="J780" s="142" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="K780" s="19" t="s">
         <v>67</v>
@@ -34437,19 +34440,19 @@
         <v>524</v>
       </c>
       <c r="B781" s="19" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C781" s="164" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="D781" s="164" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E781" s="165" t="s">
         <v>31</v>
       </c>
       <c r="F781" s="165" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G781" s="165" t="s">
         <v>1161</v>
@@ -34538,7 +34541,7 @@
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="172" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B785" s="172"/>
       <c r="C785" s="172"/>
@@ -34560,19 +34563,19 @@
         <v>525</v>
       </c>
       <c r="B786" s="173" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C786" s="174" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D786" s="174" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E786" s="173" t="s">
         <v>22</v>
       </c>
       <c r="F786" s="165" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="G786" s="173"/>
       <c r="H786" s="175" t="s">
@@ -34595,19 +34598,19 @@
         <v>526</v>
       </c>
       <c r="B787" s="165" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C787" s="164" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D787" s="164" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E787" s="165" t="s">
         <v>31</v>
       </c>
       <c r="F787" s="165" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G787" s="165" t="s">
         <v>129</v>
@@ -34619,7 +34622,7 @@
         <v>25</v>
       </c>
       <c r="J787" s="71" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="K787" s="165" t="s">
         <v>40</v>
@@ -34634,19 +34637,19 @@
         <v>527</v>
       </c>
       <c r="B788" s="173" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C788" s="164" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D788" s="71" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E788" s="165" t="s">
         <v>31</v>
       </c>
       <c r="F788" s="173" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G788" s="165" t="s">
         <v>212</v>
@@ -34658,10 +34661,10 @@
         <v>46</v>
       </c>
       <c r="J788" s="71" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="K788" s="165" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L788" s="22" t="s">
         <v>17</v>
@@ -34673,19 +34676,19 @@
         <v>528</v>
       </c>
       <c r="B789" s="165" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C789" s="164" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D789" s="71" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E789" s="165" t="s">
         <v>31</v>
       </c>
       <c r="F789" s="165" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G789" s="165" t="s">
         <v>100</v>
@@ -34697,7 +34700,7 @@
         <v>46</v>
       </c>
       <c r="J789" s="71" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K789" s="165" t="s">
         <v>40</v>
@@ -34712,22 +34715,22 @@
         <v>529</v>
       </c>
       <c r="B790" s="165" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C790" s="164" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D790" s="71" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E790" s="165" t="s">
         <v>31</v>
       </c>
       <c r="F790" s="173" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="G790" s="165" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H790" s="166" t="s">
         <v>45</v>
@@ -34736,7 +34739,7 @@
         <v>46</v>
       </c>
       <c r="J790" s="71" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K790" s="165" t="s">
         <v>27</v>
@@ -34751,13 +34754,13 @@
         <v>530</v>
       </c>
       <c r="B791" s="165" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C791" s="164" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D791" s="71" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E791" s="165" t="s">
         <v>31</v>
@@ -34775,7 +34778,7 @@
         <v>46</v>
       </c>
       <c r="J791" s="71" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="K791" s="165" t="s">
         <v>40</v>
@@ -34854,7 +34857,7 @@
     </row>
     <row r="795" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="177" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B795" s="177"/>
       <c r="C795" s="177"/>
@@ -34876,10 +34879,10 @@
         <v>531</v>
       </c>
       <c r="B796" s="62" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C796" s="63" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="D796" s="63" t="s">
         <v>256</v>
@@ -34900,10 +34903,10 @@
         <v>46</v>
       </c>
       <c r="J796" s="63" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K796" s="63" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L796" s="51" t="s">
         <v>17</v>
@@ -34915,19 +34918,19 @@
         <v>532</v>
       </c>
       <c r="B797" s="62" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C797" s="63" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="D797" s="63" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="E797" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F797" s="62" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G797" s="62" t="s">
         <v>212</v>
@@ -34940,7 +34943,7 @@
       </c>
       <c r="J797" s="178"/>
       <c r="K797" s="63" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L797" s="51" t="s">
         <v>17</v>
@@ -34952,19 +34955,19 @@
         <v>533</v>
       </c>
       <c r="B798" s="62" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C798" s="63" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="D798" s="63" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E798" s="62" t="s">
         <v>31</v>
       </c>
       <c r="F798" s="62" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="G798" s="62" t="s">
         <v>446</v>
@@ -34976,10 +34979,10 @@
         <v>25</v>
       </c>
       <c r="J798" s="178" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="K798" s="63" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L798" s="51" t="s">
         <v>17</v>
@@ -35055,7 +35058,7 @@
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="159" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B802" s="159"/>
       <c r="C802" s="159"/>
@@ -35077,13 +35080,13 @@
         <v>534</v>
       </c>
       <c r="B803" s="54" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C803" s="55" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="D803" s="55" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="E803" s="51" t="s">
         <v>22</v>
@@ -35114,22 +35117,22 @@
         <v>535</v>
       </c>
       <c r="B804" s="54" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C804" s="50" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="D804" s="50" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="E804" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F804" s="47" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G804" s="47" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="H804" s="52" t="s">
         <v>45</v>
@@ -35151,22 +35154,22 @@
         <v>536</v>
       </c>
       <c r="B805" s="54" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C805" s="50" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="D805" s="49" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="E805" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F805" s="47" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G805" s="47" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="H805" s="52" t="s">
         <v>45</v>
@@ -35252,7 +35255,7 @@
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="159" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B809" s="159"/>
       <c r="C809" s="159"/>
@@ -35274,19 +35277,19 @@
         <v>537</v>
       </c>
       <c r="B810" s="49" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C810" s="50" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="D810" s="50" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="E810" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F810" s="47" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G810" s="47" t="s">
         <v>24</v>
@@ -35298,7 +35301,7 @@
         <v>46</v>
       </c>
       <c r="J810" s="50" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="K810" s="49" t="s">
         <v>27</v>
@@ -35313,19 +35316,19 @@
         <v>538</v>
       </c>
       <c r="B811" s="49" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C811" s="50" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="D811" s="50" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E811" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F811" s="47" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="G811" s="47" t="s">
         <v>24</v>
@@ -35352,22 +35355,22 @@
         <v>539</v>
       </c>
       <c r="B812" s="49" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C812" s="50" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D812" s="50" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="E812" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F812" s="47" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="G812" s="47" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H812" s="52" t="s">
         <v>33</v>
@@ -35376,7 +35379,7 @@
         <v>25</v>
       </c>
       <c r="J812" s="50" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="K812" s="49" t="s">
         <v>27</v>
@@ -35391,19 +35394,19 @@
         <v>540</v>
       </c>
       <c r="B813" s="49" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C813" s="50" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="D813" s="50" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E813" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F813" s="47" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="G813" s="47" t="s">
         <v>95</v>
@@ -35415,7 +35418,7 @@
         <v>25</v>
       </c>
       <c r="J813" s="50" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="K813" s="49" t="s">
         <v>27</v>
@@ -35494,7 +35497,7 @@
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="159" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B817" s="159"/>
       <c r="C817" s="159"/>
@@ -35516,19 +35519,19 @@
         <v>541</v>
       </c>
       <c r="B818" s="49" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C818" s="50" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D818" s="50" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="E818" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F818" s="47" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="G818" s="47" t="s">
         <v>24</v>
@@ -35553,19 +35556,19 @@
         <v>542</v>
       </c>
       <c r="B819" s="49" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C819" s="50" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="D819" s="50" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="E819" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F819" s="47" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="G819" s="47" t="s">
         <v>24</v>
@@ -35592,19 +35595,19 @@
         <v>543</v>
       </c>
       <c r="B820" s="49" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C820" s="50" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D820" s="50" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E820" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F820" s="47" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G820" s="47" t="s">
         <v>95</v>
@@ -35629,19 +35632,19 @@
         <v>544</v>
       </c>
       <c r="B821" s="49" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C821" s="50" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D821" s="50" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="E821" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F821" s="47" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G821" s="47" t="s">
         <v>129</v>
@@ -35653,7 +35656,7 @@
         <v>25</v>
       </c>
       <c r="J821" s="50" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="K821" s="49" t="s">
         <v>27</v>
@@ -35668,22 +35671,22 @@
         <v>545</v>
       </c>
       <c r="B822" s="54" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C822" s="55" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="D822" s="55" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E822" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F822" s="51" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G822" s="51" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="H822" s="53" t="s">
         <v>45</v>
@@ -35692,7 +35695,7 @@
         <v>46</v>
       </c>
       <c r="J822" s="55" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="K822" s="54" t="s">
         <v>27</v>
@@ -35771,7 +35774,7 @@
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="159" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B826" s="159"/>
       <c r="C826" s="159"/>
@@ -35793,13 +35796,13 @@
         <v>546</v>
       </c>
       <c r="B827" s="26" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C827" s="27" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="D827" s="27" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="E827" s="19" t="s">
         <v>22</v>
@@ -35817,7 +35820,7 @@
         <v>46</v>
       </c>
       <c r="J827" s="27" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="K827" s="26" t="s">
         <v>27</v>
@@ -35832,22 +35835,22 @@
         <v>547</v>
       </c>
       <c r="B828" s="26" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="C828" s="24" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D828" s="24" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E828" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F828" s="22" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="G828" s="22" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="H828" s="25" t="s">
         <v>33</v>
@@ -35856,7 +35859,7 @@
         <v>25</v>
       </c>
       <c r="J828" s="91" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="K828" s="23" t="s">
         <v>27</v>
@@ -35871,19 +35874,19 @@
         <v>548</v>
       </c>
       <c r="B829" s="23" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C829" s="24" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="D829" s="24" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="E829" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F829" s="22" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="G829" s="22" t="s">
         <v>183</v>
@@ -35895,7 +35898,7 @@
         <v>25</v>
       </c>
       <c r="J829" s="91" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="K829" s="23" t="s">
         <v>40</v>
@@ -35973,7 +35976,7 @@
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="159" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="B833" s="159"/>
       <c r="C833" s="159"/>
@@ -35995,13 +35998,13 @@
         <v>549</v>
       </c>
       <c r="B834" s="49" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C834" s="50" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="D834" s="50" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="E834" s="47" t="s">
         <v>22</v>
@@ -36019,7 +36022,7 @@
         <v>46</v>
       </c>
       <c r="J834" s="50" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="K834" s="49" t="s">
         <v>27</v>
@@ -36034,19 +36037,19 @@
         <v>550</v>
       </c>
       <c r="B835" s="49" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C835" s="50" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="D835" s="50" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E835" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F835" s="47" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="G835" s="47" t="s">
         <v>100</v>
@@ -36071,19 +36074,19 @@
         <v>551</v>
       </c>
       <c r="B836" s="49" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C836" s="50" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="D836" s="50" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="E836" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F836" s="47" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="G836" s="47" t="s">
         <v>95</v>
@@ -36108,19 +36111,19 @@
         <v>552</v>
       </c>
       <c r="B837" s="23" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="C837" s="23" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="D837" s="23" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E837" s="22" t="s">
         <v>31</v>
       </c>
       <c r="F837" s="47" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="G837" s="22" t="s">
         <v>446</v>
@@ -36132,7 +36135,7 @@
         <v>46</v>
       </c>
       <c r="J837" s="23" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="K837" s="23" t="s">
         <v>27</v>
@@ -36211,7 +36214,7 @@
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="159" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B841" s="159"/>
       <c r="C841" s="159"/>
@@ -36233,13 +36236,13 @@
         <v>553</v>
       </c>
       <c r="B842" s="49" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C842" s="50" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D842" s="50" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E842" s="47" t="s">
         <v>22</v>
@@ -36270,22 +36273,22 @@
         <v>554</v>
       </c>
       <c r="B843" s="49" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="C843" s="50" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="D843" s="50" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E843" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F843" s="47" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G843" s="47" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="H843" s="52" t="s">
         <v>45</v>
@@ -36294,7 +36297,7 @@
         <v>46</v>
       </c>
       <c r="J843" s="50" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="K843" s="49" t="s">
         <v>27</v>
@@ -36309,19 +36312,19 @@
         <v>555</v>
       </c>
       <c r="B844" s="49" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="C844" s="50" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D844" s="50" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="E844" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F844" s="47" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G844" s="47" t="s">
         <v>95</v>
@@ -36333,7 +36336,7 @@
         <v>46</v>
       </c>
       <c r="J844" s="50" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="K844" s="49" t="s">
         <v>27</v>
@@ -36348,19 +36351,19 @@
         <v>556</v>
       </c>
       <c r="B845" s="49" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="C845" s="50" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="D845" s="50" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="E845" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F845" s="47" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G845" s="47" t="s">
         <v>95</v>
@@ -36372,7 +36375,7 @@
         <v>46</v>
       </c>
       <c r="J845" s="50" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="K845" s="49" t="s">
         <v>27</v>
@@ -36450,7 +36453,7 @@
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="159" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="B849" s="159"/>
       <c r="C849" s="159"/>
@@ -36472,13 +36475,13 @@
         <v>557</v>
       </c>
       <c r="B850" s="49" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="C850" s="50" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="D850" s="50" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="E850" s="47" t="s">
         <v>22</v>
@@ -36496,7 +36499,7 @@
         <v>46</v>
       </c>
       <c r="J850" s="50" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="K850" s="49" t="s">
         <v>27</v>
@@ -36511,22 +36514,22 @@
         <v>558</v>
       </c>
       <c r="B851" s="49" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="C851" s="50" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="D851" s="50" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="E851" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F851" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G851" s="47" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="H851" s="52" t="s">
         <v>33</v>
@@ -36535,7 +36538,7 @@
         <v>25</v>
       </c>
       <c r="J851" s="50" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="K851" s="49" t="s">
         <v>27</v>
@@ -36550,19 +36553,19 @@
         <v>559</v>
       </c>
       <c r="B852" s="49" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C852" s="50" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="D852" s="50" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="E852" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F852" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G852" s="47" t="s">
         <v>281</v>
@@ -36574,7 +36577,7 @@
         <v>25</v>
       </c>
       <c r="J852" s="50" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="K852" s="49" t="s">
         <v>27</v>
@@ -36589,22 +36592,22 @@
         <v>560</v>
       </c>
       <c r="B853" s="49" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C853" s="50" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D853" s="50" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E853" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F853" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G853" s="47" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H853" s="52" t="s">
         <v>33</v>
@@ -36626,22 +36629,22 @@
         <v>561</v>
       </c>
       <c r="B854" s="49" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C854" s="50" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D854" s="50" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E854" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F854" s="47" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G854" s="47" t="s">
         <v>2144</v>
-      </c>
-      <c r="C854" s="50" t="s">
-        <v>2145</v>
-      </c>
-      <c r="D854" s="50" t="s">
-        <v>2146</v>
-      </c>
-      <c r="E854" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F854" s="47" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G854" s="47" t="s">
-        <v>2143</v>
       </c>
       <c r="H854" s="52" t="s">
         <v>33</v>
@@ -36663,22 +36666,22 @@
         <v>562</v>
       </c>
       <c r="B855" s="49" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="C855" s="50" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="D855" s="50" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E855" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F855" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G855" s="47" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H855" s="52" t="s">
         <v>33</v>
@@ -36700,19 +36703,19 @@
         <v>563</v>
       </c>
       <c r="B856" s="49" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="C856" s="50" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D856" s="50" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="E856" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F856" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G856" s="47" t="s">
         <v>601</v>
@@ -36724,7 +36727,7 @@
         <v>25</v>
       </c>
       <c r="J856" s="50" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="K856" s="49" t="s">
         <v>27</v>
@@ -36739,19 +36742,19 @@
         <v>564</v>
       </c>
       <c r="B857" s="49" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="C857" s="50" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D857" s="50" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="E857" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F857" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G857" s="47" t="s">
         <v>601</v>
@@ -36763,7 +36766,7 @@
         <v>25</v>
       </c>
       <c r="J857" s="50" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="K857" s="49" t="s">
         <v>27</v>
@@ -36778,19 +36781,19 @@
         <v>565</v>
       </c>
       <c r="B858" s="49" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="C858" s="50" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="D858" s="50" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E858" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F858" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G858" s="47" t="s">
         <v>601</v>
@@ -36802,7 +36805,7 @@
         <v>25</v>
       </c>
       <c r="J858" s="50" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="K858" s="49" t="s">
         <v>27</v>
@@ -36880,7 +36883,7 @@
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="159" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B862" s="159"/>
       <c r="C862" s="159"/>
@@ -36902,31 +36905,31 @@
         <v>566</v>
       </c>
       <c r="B863" s="49" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C863" s="50" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D863" s="50" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E863" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F863" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G863" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H863" s="52" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I863" s="47" t="s">
         <v>25</v>
       </c>
       <c r="J863" s="50" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="K863" s="49" t="s">
         <v>27</v>
@@ -36941,25 +36944,25 @@
         <v>567</v>
       </c>
       <c r="B864" s="49" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C864" s="74" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D864" s="50" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="E864" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F864" s="47" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="G864" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H864" s="52" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="I864" s="47" t="s">
         <v>25</v>
@@ -36980,19 +36983,19 @@
         <v>568</v>
       </c>
       <c r="B865" s="49" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="C865" s="50" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D865" s="50" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E865" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F865" s="47" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G865" s="47" t="s">
         <v>90</v>
@@ -37017,22 +37020,22 @@
         <v>569</v>
       </c>
       <c r="B866" s="49" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="C866" s="50" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="D866" s="50" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="E866" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F866" s="47" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="G866" s="47" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="H866" s="52" t="s">
         <v>33</v>
@@ -37041,7 +37044,7 @@
         <v>25</v>
       </c>
       <c r="J866" s="50" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="K866" s="49" t="s">
         <v>27</v>
@@ -37119,7 +37122,7 @@
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="159" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B870" s="159"/>
       <c r="C870" s="159"/>
@@ -37141,31 +37144,31 @@
         <v>570</v>
       </c>
       <c r="B871" s="49" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C871" s="50" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D871" s="50" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="E871" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F871" s="47" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="G871" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H871" s="52" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="I871" s="47" t="s">
         <v>46</v>
       </c>
       <c r="J871" s="50" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="K871" s="49" t="s">
         <v>27</v>
@@ -37180,25 +37183,25 @@
         <v>571</v>
       </c>
       <c r="B872" s="49" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="C872" s="50" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D872" s="50" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="E872" s="47" t="s">
         <v>22</v>
       </c>
       <c r="F872" s="47" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G872" s="47" t="s">
         <v>24</v>
       </c>
       <c r="H872" s="52" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="I872" s="47" t="s">
         <v>25</v>
@@ -37219,19 +37222,19 @@
         <v>572</v>
       </c>
       <c r="B873" s="49" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="C873" s="50" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D873" s="50" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E873" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F873" s="47" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="G873" s="47" t="s">
         <v>95</v>
@@ -37243,7 +37246,7 @@
         <v>25</v>
       </c>
       <c r="J873" s="50" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="K873" s="49" t="s">
         <v>27</v>
@@ -37258,19 +37261,19 @@
         <v>573</v>
       </c>
       <c r="B874" s="49" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="C874" s="50" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D874" s="50" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="E874" s="47" t="s">
         <v>31</v>
       </c>
       <c r="F874" s="47" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="G874" s="47" t="s">
         <v>601</v>
@@ -37358,7 +37361,7 @@
     </row>
     <row r="878" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="125" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B878" s="125"/>
       <c r="C878" s="125"/>
@@ -37380,13 +37383,13 @@
         <v>574</v>
       </c>
       <c r="B879" s="54" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="C879" s="55" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D879" s="55" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E879" s="51" t="s">
         <v>22</v>
@@ -37417,19 +37420,19 @@
         <v>575</v>
       </c>
       <c r="B880" s="54" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C880" s="55" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D880" s="55" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="E880" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F880" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G880" s="51" t="s">
         <v>212</v>
@@ -37441,7 +37444,7 @@
         <v>25</v>
       </c>
       <c r="J880" s="55" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="K880" s="54" t="s">
         <v>447</v>
@@ -37456,19 +37459,19 @@
         <v>576</v>
       </c>
       <c r="B881" s="54" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C881" s="55" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D881" s="55" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="E881" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F881" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G881" s="51" t="s">
         <v>446</v>
@@ -37493,19 +37496,19 @@
         <v>577</v>
       </c>
       <c r="B882" s="54" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="C882" s="55" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D882" s="55" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E882" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F882" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G882" s="51" t="s">
         <v>446</v>
@@ -37530,19 +37533,19 @@
         <v>578</v>
       </c>
       <c r="B883" s="54" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C883" s="55" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D883" s="55" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="E883" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F883" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G883" s="51" t="s">
         <v>794</v>
@@ -37567,22 +37570,22 @@
         <v>579</v>
       </c>
       <c r="B884" s="54" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C884" s="55" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D884" s="55" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="E884" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F884" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G884" s="51" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="H884" s="53" t="s">
         <v>45</v>
@@ -37604,22 +37607,22 @@
         <v>580</v>
       </c>
       <c r="B885" s="54" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="C885" s="55" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="D885" s="55" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E885" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F885" s="51" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="G885" s="51" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="H885" s="53" t="s">
         <v>45</v>
@@ -37628,7 +37631,7 @@
         <v>46</v>
       </c>
       <c r="J885" s="55" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K885" s="54" t="s">
         <v>447</v>
@@ -37858,7 +37861,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="188" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B3" s="188"/>
       <c r="C3" s="188"/>
@@ -37934,7 +37937,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="189" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B7" s="189"/>
       <c r="C7" s="189"/>
@@ -37955,10 +37958,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>22</v>
@@ -37977,7 +37980,7 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="23" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="84.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37989,10 +37992,10 @@
         <v>79</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>31</v>
@@ -38010,10 +38013,10 @@
         <v>46</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="99" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38025,10 +38028,10 @@
         <v>82</v>
       </c>
       <c r="C10" s="190" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="D10" s="107" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E10" s="108" t="s">
         <v>31</v>
@@ -38046,10 +38049,10 @@
         <v>46</v>
       </c>
       <c r="J10" s="107" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38061,10 +38064,10 @@
         <v>87</v>
       </c>
       <c r="C11" s="190" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="E11" s="108" t="s">
         <v>31</v>
@@ -38082,10 +38085,10 @@
         <v>46</v>
       </c>
       <c r="J11" s="107" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
   </sheetData>
@@ -38157,7 +38160,7 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="188" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="B3" s="188"/>
       <c r="C3" s="188"/>
@@ -38233,7 +38236,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="189" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B7" s="189"/>
       <c r="C7" s="189"/>
@@ -38254,10 +38257,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>22</v>
@@ -38275,7 +38278,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>27</v>
@@ -38290,7 +38293,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="142" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>30</v>
@@ -38311,7 +38314,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="K9" s="26" t="s">
         <v>27</v>
@@ -38326,10 +38329,10 @@
         <v>82</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>31</v>
@@ -38360,10 +38363,10 @@
         <v>87</v>
       </c>
       <c r="C11" s="191" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D11" s="192" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>31</v>
@@ -38372,7 +38375,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="193" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="H11" s="25" t="s">
         <v>24</v>
@@ -38394,10 +38397,10 @@
         <v>92</v>
       </c>
       <c r="C12" s="191" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D12" s="192" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>31</v>
@@ -38428,10 +38431,10 @@
         <v>97</v>
       </c>
       <c r="C13" s="191" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>31</v>
@@ -38462,10 +38465,10 @@
         <v>102</v>
       </c>
       <c r="C14" s="191" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D14" s="192" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>31</v>
@@ -38496,10 +38499,10 @@
         <v>107</v>
       </c>
       <c r="C15" s="191" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D15" s="192" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>31</v>
@@ -38530,10 +38533,10 @@
         <v>112</v>
       </c>
       <c r="C16" s="191" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D16" s="192" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>31</v>
@@ -38542,7 +38545,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="193" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>24</v>
@@ -38564,10 +38567,10 @@
         <v>117</v>
       </c>
       <c r="C17" s="191" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D17" s="192" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>31</v>
@@ -38576,7 +38579,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="193" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>24</v>
@@ -38585,7 +38588,7 @@
         <v>24</v>
       </c>
       <c r="J17" s="192" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>27</v>
@@ -38600,10 +38603,10 @@
         <v>122</v>
       </c>
       <c r="C18" s="191" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D18" s="192" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>31</v>
@@ -38634,10 +38637,10 @@
         <v>126</v>
       </c>
       <c r="C19" s="191" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D19" s="192" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>31</v>
@@ -38646,7 +38649,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="193" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>24</v>
@@ -38655,7 +38658,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="192" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>27</v>
@@ -38670,10 +38673,10 @@
         <v>131</v>
       </c>
       <c r="C20" s="191" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D20" s="192" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>31</v>
@@ -38691,7 +38694,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="192" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>27</v>
@@ -38706,10 +38709,10 @@
         <v>135</v>
       </c>
       <c r="C21" s="191" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="D21" s="192" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>31</v>
@@ -38718,7 +38721,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="193" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="H21" s="25" t="s">
         <v>24</v>
@@ -38727,7 +38730,7 @@
         <v>24</v>
       </c>
       <c r="J21" s="192" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>27</v>
@@ -38742,10 +38745,10 @@
         <v>139</v>
       </c>
       <c r="C22" s="191" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D22" s="192" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>31</v>
@@ -38776,10 +38779,10 @@
         <v>143</v>
       </c>
       <c r="C23" s="191" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D23" s="192" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>31</v>
@@ -38788,7 +38791,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="193" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>24</v>
@@ -38797,7 +38800,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="192" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>27</v>
@@ -38812,10 +38815,10 @@
         <v>147</v>
       </c>
       <c r="C24" s="191" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="D24" s="192" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>31</v>
@@ -38833,10 +38836,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="192" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38848,10 +38851,10 @@
         <v>151</v>
       </c>
       <c r="C25" s="194" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D25" s="194" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>31</v>
@@ -38869,10 +38872,10 @@
         <v>24</v>
       </c>
       <c r="J25" s="196" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38884,10 +38887,10 @@
         <v>186</v>
       </c>
       <c r="C26" s="191" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D26" s="192" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>22</v>
@@ -38915,13 +38918,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="197" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C27" s="191" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D27" s="192" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>31</v>
@@ -38949,13 +38952,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="197" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C28" s="191" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D28" s="192" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>31</v>
@@ -38983,13 +38986,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="198" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="C29" s="199" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="D29" s="200" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>22</v>
@@ -39007,7 +39010,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="200" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>27</v>
@@ -39019,22 +39022,22 @@
         <v>23</v>
       </c>
       <c r="B30" s="198" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C30" s="199" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D30" s="200" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="201" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G30" s="201" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="H30" s="202" t="s">
         <v>24</v>
@@ -39043,7 +39046,7 @@
         <v>24</v>
       </c>
       <c r="J30" s="203" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="K30" s="204" t="s">
         <v>27</v>
@@ -39055,22 +39058,22 @@
         <v>24</v>
       </c>
       <c r="B31" s="198" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="C31" s="199" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D31" s="200" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="201" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G31" s="201" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="H31" s="202" t="s">
         <v>24</v>
@@ -39079,7 +39082,7 @@
         <v>24</v>
       </c>
       <c r="J31" s="203" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="K31" s="204" t="s">
         <v>27</v>
@@ -39091,13 +39094,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="205" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C32" s="206" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D32" s="194" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>22</v>
@@ -39115,7 +39118,7 @@
         <v>24</v>
       </c>
       <c r="J32" s="194" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>27</v>
@@ -39127,19 +39130,19 @@
         <v>26</v>
       </c>
       <c r="B33" s="205" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="C33" s="206" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D33" s="194" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="195" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G33" s="195" t="s">
         <v>206</v>
@@ -39161,22 +39164,22 @@
         <v>27</v>
       </c>
       <c r="B34" s="205" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C34" s="206" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="D34" s="194" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="195" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="G34" s="195" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>24</v>
